--- a/BPU.xlsx
+++ b/BPU.xlsx
@@ -1,20 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KS759734\Desktop\Outil de chiffrage\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D92D9AED-25B6-4511-BDFB-CC8EF92856CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" iterate="1" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="589" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="413">
   <si>
     <t xml:space="preserve">N° de prix </t>
   </si>
@@ -990,13 +1007,396 @@
   </si>
   <si>
     <t>ALARME ACCIDENT INCENDIE  (ECHANGE)</t>
+  </si>
+  <si>
+    <t>1.2.101</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pose de câbles sur chemin existant (dalle, câblofil, tube, goulotte, moulure...) : tous câbles </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Parisine Office"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">armés ou non armés : Télécommunications </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Parisine Office"/>
+        <family val="2"/>
+      </rPr>
+      <t>K6, K10, K20, K27 etc &lt;= 28 paires, énergie K15 ou K25 ou K27 &lt;= 3 x 4 mm² et 5 x 2,5 mm², coaxiaux type télévision RG11 et RG59, réseau L100-120 série K de 4 à 16 paires 6/10 à 12/10</t>
+    </r>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>1.2.102</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Pose de câbles sur chemin existant (dalle, câblofil, tube, goulotte, moulure...) : tous câbles </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Parisine Office"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">armés ou non armés : Télécommunications </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Parisine Office"/>
+        <family val="2"/>
+      </rPr>
+      <t>K6, K10, K20, K27 etc par 28 paires supplémentaires, énergie K15 ou K25 ou K27 &gt;= 5 x 2,5 mm², réseau L100-120 série K par 16 paires 6/10 à 12/10 supplémentaires</t>
+    </r>
+  </si>
+  <si>
+    <t>1.2.103</t>
+  </si>
+  <si>
+    <t>Pose de câbles sur chemin existant (dalle, câblofil, tube, goulotte, moulure...) : câble de terre jusqu'à 16 mm2</t>
+  </si>
+  <si>
+    <r>
+      <t>Déroulage et pose de fibres optiques multimodes rainurées</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Parisine Office"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (catégorie 62,5 / 125 ou 50/125) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Parisine Office"/>
+        <family val="2"/>
+      </rPr>
+      <t>K209B</t>
+    </r>
+  </si>
+  <si>
+    <t>1.2.104</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Déroulage et pose de fibres optiques multimodes rainurées </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Parisine Office"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 6 brins</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Parisine Office"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (catégorie 62,5 / 125 ou 50/125) K209B </t>
+    </r>
+  </si>
+  <si>
+    <t>1.2.105</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Déroulage et pose de fibres optiques multimodes rainurées  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Parisine Office"/>
+        <family val="2"/>
+      </rPr>
+      <t>12 brins (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Parisine Office"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">catégorie 62,5 / 125 ou 50/125) K209B </t>
+    </r>
+  </si>
+  <si>
+    <t>1.2.106</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Déroulage et pose de fibres optiques multimodes rainurées  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Parisine Office"/>
+        <family val="2"/>
+      </rPr>
+      <t>24 brins</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Parisine Office"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (catégorie 62,5 / 125 ou 50/125) K209B </t>
+    </r>
+  </si>
+  <si>
+    <t>1.2.131</t>
+  </si>
+  <si>
+    <t>Fourniture et confection d'une jonction droite avec manchons thermo rétractables sur câble &lt;= 8 paires</t>
+  </si>
+  <si>
+    <t>1.2.132</t>
+  </si>
+  <si>
+    <t>Fourniture et confection d'une jonction droite avec manchons thermo rétractables sur câble &gt; 8 paires &lt;= 28 paires</t>
+  </si>
+  <si>
+    <t>1.2.133</t>
+  </si>
+  <si>
+    <t>Fourniture et confection d'une jonction droite avec manchons thermo rétractables sur câble par 28 paires supplémentaires</t>
+  </si>
+  <si>
+    <t>1.2.134</t>
+  </si>
+  <si>
+    <t>Fourniture et confection d'une jonction droite avec manchons thermo rétractables sur câble &lt;= 3 x 4 mm2 et 5 x 2,5 mm²</t>
+  </si>
+  <si>
+    <t>1.2.136</t>
+  </si>
+  <si>
+    <t>Fourniture et confection d'un manchon sur câble (de type scotch ou similaire) 2 paires &lt;= 8 paires</t>
+  </si>
+  <si>
+    <t>1.2.137</t>
+  </si>
+  <si>
+    <t>Fourniture et confection d'un manchon sur câble (de type scotch ou similaire)10 paires &lt;= 28 paires</t>
+  </si>
+  <si>
+    <t>1.2.138</t>
+  </si>
+  <si>
+    <t>Fourniture et confection d'un manchon sur câble (de type scotch ou similaire) par 28 paires supplémentaires</t>
+  </si>
+  <si>
+    <t>1.2.140</t>
+  </si>
+  <si>
+    <t>Confection d'extrémité sur tête de câble - connexions autodénudantes (CAD) pour câbles &lt;= 8 paires</t>
+  </si>
+  <si>
+    <t>1.2.141</t>
+  </si>
+  <si>
+    <t>Confection d'extrémité sur tête de câble - connexions autodénudantes (CAD) pour câbles &gt; 8 paires &lt;= 28 paires</t>
+  </si>
+  <si>
+    <t>1.2.142</t>
+  </si>
+  <si>
+    <t>Confection d'extrémité sur tête de câble - connexions autodénudantes (CAD) pour câbles par 28 paires supplémentaires</t>
+  </si>
+  <si>
+    <t>1.2.143</t>
+  </si>
+  <si>
+    <t>Confection d'extrémité sur tête de câble - connexions soudées ou vissées (tête AIRLB...) pour câble &lt;= 8 paires</t>
+  </si>
+  <si>
+    <t>1.2.144</t>
+  </si>
+  <si>
+    <t>Confection d'extrémité sur tête de câble - connexions soudées ou vissées (tête AIRLB...) pour câble &gt; 8 paires &lt;= 28 paires</t>
+  </si>
+  <si>
+    <t>1.2.145</t>
+  </si>
+  <si>
+    <t>Confection d'extrémité sur tête de câble - connexions soudées ou vissées (tête AIRLB...) pour câble par 28 paires supplémentaires</t>
+  </si>
+  <si>
+    <t>1.2.153</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fourniture et pose d'un tiroir optique 12 brins </t>
+  </si>
+  <si>
+    <t>1.2.154</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fourniture et pose d'un tiroir optique 24 brins </t>
+  </si>
+  <si>
+    <t>1.2.155</t>
+  </si>
+  <si>
+    <t>Fourniture et pose de connecteur de type "galette" sur répartiteur</t>
+  </si>
+  <si>
+    <t>1.2.156</t>
+  </si>
+  <si>
+    <t>Raccordement et test dans les deux sens de câble à fibres optiques pour fibre 6 brins</t>
+  </si>
+  <si>
+    <t>1.2.157</t>
+  </si>
+  <si>
+    <t>Raccordement et test dans les deux sens de câble à fibres optiques pour fibre 12 brins</t>
+  </si>
+  <si>
+    <t>1.2.158</t>
+  </si>
+  <si>
+    <t>Raccordement et test dans les deux sens de câble à fibres optiques pour fibre 24 brins</t>
+  </si>
+  <si>
+    <t>1.2.159</t>
+  </si>
+  <si>
+    <t>Réalisation d'une extrémité fiche télévision ou connecteur F</t>
+  </si>
+  <si>
+    <t>1.2.165</t>
+  </si>
+  <si>
+    <t>Raccordement des circuits de terre (par connexion)</t>
+  </si>
+  <si>
+    <t>1.2.201</t>
+  </si>
+  <si>
+    <t>Dépose de chemins de câbles &lt;= 300 x 54 mm sans réemploi</t>
+  </si>
+  <si>
+    <t>1.2.203</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Dépose de conduits métalliques et PVC  (tubes MRB, IRO, ICT, moulure,  goulotte plinthe, etc…) sans réemploi</t>
+  </si>
+  <si>
+    <t>1.2.204</t>
+  </si>
+  <si>
+    <t>Dépose de câbles de toutes natures sans réemploi de diamètre extérieur &lt;= 15 mm</t>
+  </si>
+  <si>
+    <t>1.2.205</t>
+  </si>
+  <si>
+    <t>Dépose de câbles de toutes natures sans réemploi de diamètre extérieur  &gt; 15 mm</t>
+  </si>
+  <si>
+    <t>1.2.209</t>
+  </si>
+  <si>
+    <t>Déconnexion de cable sur connexion autodénudante (CAD) sans réemploi, par 8 paires</t>
+  </si>
+  <si>
+    <t>1.2.210</t>
+  </si>
+  <si>
+    <t>Décâblage de tête vissée-soudée ou vissée-vissée (modulo 10)</t>
+  </si>
+  <si>
+    <t>1.2.212</t>
+  </si>
+  <si>
+    <t>Dépose de connecteurs radio sur câble tous types de catégorie I à R VII</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>Dépose de connecteurs radio</t>
+  </si>
+  <si>
+    <t>Décâblage de tête</t>
+  </si>
+  <si>
+    <t>Déconnexion de cable sur connexion autodénudante (CAD)</t>
+  </si>
+  <si>
+    <t>Dépose de câbles de toutes natures de diamètre extérieur</t>
+  </si>
+  <si>
+    <t>Conduits métalliques et PVC  (tubes MRB, IRO, ICT, moulure,  goulotte plinthe, etc…)</t>
+  </si>
+  <si>
+    <t>Dépose de chemins de câbles &lt;= 300 x 54 mm</t>
+  </si>
+  <si>
+    <t>Pose de câbles sur chemin existant (dalle, câblofil, tube, goulotte, moulure...)</t>
+  </si>
+  <si>
+    <t>Déroulage et pose de fibres optiques multimodes rainurées (catégorie 62,5 / 125 ou 50/125) K209B</t>
+  </si>
+  <si>
+    <t>Fourniture et confection d'une jonction droite avec manchons thermo rétractables sur câble</t>
+  </si>
+  <si>
+    <t>Fourniture et confection d'un manchon sur câble (de type scotch ou similaire)</t>
+  </si>
+  <si>
+    <t>Confection d'extrémité sur tête de câble - connexions autodénudantes (CAD) pour câbles</t>
+  </si>
+  <si>
+    <t>Confection d'extrémité sur tête de câble - connexions soudées ou vissées (tête AIRLB...) pour câble</t>
+  </si>
+  <si>
+    <t>1.2.146</t>
+  </si>
+  <si>
+    <t>Confection d'extrémité de câble sur prise type modular Jack RJ 45 ou RJ12</t>
+  </si>
+  <si>
+    <t>Prestations sur câbles à fibres optiques</t>
+  </si>
+  <si>
+    <t>Raccordement et test dans les deux sens de câble à fibres optiques</t>
+  </si>
+  <si>
+    <t>Raccordement câbles de type télévision</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="00"/>
+    <numFmt numFmtId="165" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="166" formatCode="#,##0.00&quot; h&quot;"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1012,16 +1412,33 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Parisine Office"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Parisine Office"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1044,14 +1461,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1059,11 +1531,19 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1105,7 +1585,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1137,9 +1617,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1171,6 +1669,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1346,14 +1862,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M145"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AL181"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A161" workbookViewId="0">
+      <selection activeCell="D160" sqref="D160"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="58.6328125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1394,7 +1915,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -1423,10 +1944,10 @@
         <v>923.28</v>
       </c>
       <c r="J2">
-        <v>72.76000000000001</v>
+        <v>72.760000000000005</v>
       </c>
       <c r="K2">
-        <v>582.08</v>
+        <v>582.08000000000004</v>
       </c>
       <c r="L2">
         <v>3.1</v>
@@ -1435,7 +1956,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1476,7 +1997,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>15</v>
       </c>
@@ -1496,19 +2017,19 @@
         <v>57.34</v>
       </c>
       <c r="G4">
-        <v>180.621</v>
+        <v>180.62100000000001</v>
       </c>
       <c r="H4">
-        <v>131.89</v>
+        <v>131.88999999999999</v>
       </c>
       <c r="I4">
-        <v>415.4535</v>
+        <v>415.45350000000002</v>
       </c>
       <c r="J4">
         <v>83.14</v>
       </c>
       <c r="K4">
-        <v>261.891</v>
+        <v>261.89100000000002</v>
       </c>
       <c r="L4">
         <v>3.1</v>
@@ -1517,7 +2038,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -1537,19 +2058,19 @@
         <v>51.37</v>
       </c>
       <c r="G5">
-        <v>231.165</v>
+        <v>231.16499999999999</v>
       </c>
       <c r="H5">
         <v>118.17</v>
       </c>
       <c r="I5">
-        <v>531.765</v>
+        <v>531.76499999999999</v>
       </c>
       <c r="J5">
-        <v>74.48999999999999</v>
+        <v>74.489999999999995</v>
       </c>
       <c r="K5">
-        <v>335.205</v>
+        <v>335.20499999999998</v>
       </c>
       <c r="L5">
         <v>3.1</v>
@@ -1558,7 +2079,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -1578,7 +2099,7 @@
         <v>48.17</v>
       </c>
       <c r="G6">
-        <v>272.1605</v>
+        <v>272.16050000000001</v>
       </c>
       <c r="H6">
         <v>110.8</v>
@@ -1587,10 +2108,10 @@
         <v>626.02</v>
       </c>
       <c r="J6">
-        <v>69.84999999999999</v>
+        <v>69.849999999999994</v>
       </c>
       <c r="K6">
-        <v>394.6525</v>
+        <v>394.65249999999997</v>
       </c>
       <c r="L6">
         <v>3.1</v>
@@ -1599,7 +2120,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1628,10 +2149,10 @@
         <v>387.8</v>
       </c>
       <c r="J7">
-        <v>69.84999999999999</v>
+        <v>69.849999999999994</v>
       </c>
       <c r="K7">
-        <v>244.475</v>
+        <v>244.47499999999999</v>
       </c>
       <c r="L7">
         <v>3.1</v>
@@ -1640,7 +2161,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -1654,7 +2175,7 @@
         <v>0</v>
       </c>
       <c r="E8">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F8">
         <v>48.17</v>
@@ -1669,7 +2190,7 @@
         <v>254.84</v>
       </c>
       <c r="J8">
-        <v>69.84999999999999</v>
+        <v>69.849999999999994</v>
       </c>
       <c r="K8">
         <v>160.655</v>
@@ -1681,7 +2202,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -1701,7 +2222,7 @@
         <v>48.17</v>
       </c>
       <c r="G9">
-        <v>72.255</v>
+        <v>72.254999999999995</v>
       </c>
       <c r="H9">
         <v>110.8</v>
@@ -1710,10 +2231,10 @@
         <v>166.2</v>
       </c>
       <c r="J9">
-        <v>69.84999999999999</v>
+        <v>69.849999999999994</v>
       </c>
       <c r="K9">
-        <v>104.775</v>
+        <v>104.77500000000001</v>
       </c>
       <c r="L9">
         <v>3.1</v>
@@ -1722,7 +2243,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -1742,7 +2263,7 @@
         <v>48.17</v>
       </c>
       <c r="G10">
-        <v>79.48050000000001</v>
+        <v>79.480500000000006</v>
       </c>
       <c r="H10">
         <v>110.8</v>
@@ -1751,7 +2272,7 @@
         <v>182.82</v>
       </c>
       <c r="J10">
-        <v>69.84999999999999</v>
+        <v>69.849999999999994</v>
       </c>
       <c r="K10">
         <v>115.2525</v>
@@ -1763,7 +2284,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -1783,19 +2304,19 @@
         <v>51.9</v>
       </c>
       <c r="G11">
-        <v>391.845</v>
+        <v>391.84500000000003</v>
       </c>
       <c r="H11">
         <v>119.36</v>
       </c>
       <c r="I11">
-        <v>901.168</v>
+        <v>901.16800000000001</v>
       </c>
       <c r="J11">
         <v>75.25</v>
       </c>
       <c r="K11">
-        <v>568.1375</v>
+        <v>568.13750000000005</v>
       </c>
       <c r="L11">
         <v>3.1</v>
@@ -1804,7 +2325,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -1818,19 +2339,19 @@
         <v>11.09</v>
       </c>
       <c r="E12">
-        <v>4.35</v>
+        <v>4.3499999999999996</v>
       </c>
       <c r="F12">
         <v>52.16</v>
       </c>
       <c r="G12">
-        <v>226.896</v>
+        <v>226.89599999999999</v>
       </c>
       <c r="H12">
         <v>119.96</v>
       </c>
       <c r="I12">
-        <v>521.826</v>
+        <v>521.82600000000002</v>
       </c>
       <c r="J12">
         <v>75.63</v>
@@ -1845,7 +2366,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>24</v>
       </c>
@@ -1886,7 +2407,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>25</v>
       </c>
@@ -1915,7 +2436,7 @@
         <v>664.8</v>
       </c>
       <c r="J14">
-        <v>69.84999999999999</v>
+        <v>69.849999999999994</v>
       </c>
       <c r="K14">
         <v>419.1</v>
@@ -1927,7 +2448,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>26</v>
       </c>
@@ -1956,10 +2477,10 @@
         <v>443.2</v>
       </c>
       <c r="J15">
-        <v>69.84999999999999</v>
+        <v>69.849999999999994</v>
       </c>
       <c r="K15">
-        <v>279.4</v>
+        <v>279.39999999999998</v>
       </c>
       <c r="L15">
         <v>3.1</v>
@@ -1968,7 +2489,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>27</v>
       </c>
@@ -1997,7 +2518,7 @@
         <v>554</v>
       </c>
       <c r="J16">
-        <v>69.84999999999999</v>
+        <v>69.849999999999994</v>
       </c>
       <c r="K16">
         <v>349.25</v>
@@ -2009,7 +2530,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -2038,10 +2559,10 @@
         <v>886.4</v>
       </c>
       <c r="J17">
-        <v>69.84999999999999</v>
+        <v>69.849999999999994</v>
       </c>
       <c r="K17">
-        <v>558.8</v>
+        <v>558.79999999999995</v>
       </c>
       <c r="L17">
         <v>3.1</v>
@@ -2050,7 +2571,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>29</v>
       </c>
@@ -2076,7 +2597,7 @@
         <v>99.53</v>
       </c>
       <c r="I18">
-        <v>2388.72</v>
+        <v>2388.7199999999998</v>
       </c>
       <c r="J18">
         <v>62.75</v>
@@ -2091,7 +2612,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>30</v>
       </c>
@@ -2132,7 +2653,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>31</v>
       </c>
@@ -2173,7 +2694,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>32</v>
       </c>
@@ -2184,7 +2705,7 @@
         <v>301</v>
       </c>
       <c r="D21">
-        <v>89.73999999999999</v>
+        <v>89.74</v>
       </c>
       <c r="E21">
         <v>6</v>
@@ -2202,7 +2723,7 @@
         <v>664.8</v>
       </c>
       <c r="J21">
-        <v>69.84999999999999</v>
+        <v>69.849999999999994</v>
       </c>
       <c r="K21">
         <v>419.1</v>
@@ -2214,7 +2735,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>33</v>
       </c>
@@ -2255,7 +2776,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>34</v>
       </c>
@@ -2281,7 +2802,7 @@
         <v>97.73</v>
       </c>
       <c r="I23">
-        <v>261.9164</v>
+        <v>261.91640000000001</v>
       </c>
       <c r="J23">
         <v>61.61</v>
@@ -2296,7 +2817,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>35</v>
       </c>
@@ -2316,7 +2837,7 @@
         <v>48.17</v>
       </c>
       <c r="G24">
-        <v>183.046</v>
+        <v>183.04599999999999</v>
       </c>
       <c r="H24">
         <v>110.8</v>
@@ -2325,7 +2846,7 @@
         <v>421.04</v>
       </c>
       <c r="J24">
-        <v>69.84999999999999</v>
+        <v>69.849999999999994</v>
       </c>
       <c r="K24">
         <v>265.43</v>
@@ -2337,7 +2858,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>36</v>
       </c>
@@ -2357,7 +2878,7 @@
         <v>48.17</v>
       </c>
       <c r="G25">
-        <v>180.6375</v>
+        <v>180.63749999999999</v>
       </c>
       <c r="H25">
         <v>110.8</v>
@@ -2366,7 +2887,7 @@
         <v>415.5</v>
       </c>
       <c r="J25">
-        <v>69.84999999999999</v>
+        <v>69.849999999999994</v>
       </c>
       <c r="K25">
         <v>261.9375</v>
@@ -2378,7 +2899,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -2419,7 +2940,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>38</v>
       </c>
@@ -2430,7 +2951,7 @@
         <v>301</v>
       </c>
       <c r="D27">
-        <v>77.59999999999999</v>
+        <v>77.599999999999994</v>
       </c>
       <c r="E27">
         <v>3</v>
@@ -2448,7 +2969,7 @@
         <v>332.4</v>
       </c>
       <c r="J27">
-        <v>69.84999999999999</v>
+        <v>69.849999999999994</v>
       </c>
       <c r="K27">
         <v>209.55</v>
@@ -2460,7 +2981,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>39</v>
       </c>
@@ -2489,10 +3010,10 @@
         <v>443.2</v>
       </c>
       <c r="J28">
-        <v>69.84999999999999</v>
+        <v>69.849999999999994</v>
       </c>
       <c r="K28">
-        <v>279.4</v>
+        <v>279.39999999999998</v>
       </c>
       <c r="L28">
         <v>3.2</v>
@@ -2501,7 +3022,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>40</v>
       </c>
@@ -2542,7 +3063,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>41</v>
       </c>
@@ -2562,7 +3083,7 @@
         <v>43.34</v>
       </c>
       <c r="G30">
-        <v>130.02</v>
+        <v>130.02000000000001</v>
       </c>
       <c r="H30">
         <v>99.69</v>
@@ -2583,7 +3104,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>42</v>
       </c>
@@ -2594,7 +3115,7 @@
         <v>301</v>
       </c>
       <c r="D31">
-        <v>32.16</v>
+        <v>32.159999999999997</v>
       </c>
       <c r="E31">
         <v>3</v>
@@ -2612,7 +3133,7 @@
         <v>332.4</v>
       </c>
       <c r="J31">
-        <v>69.84999999999999</v>
+        <v>69.849999999999994</v>
       </c>
       <c r="K31">
         <v>209.55</v>
@@ -2624,7 +3145,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>43</v>
       </c>
@@ -2644,16 +3165,16 @@
         <v>48.17</v>
       </c>
       <c r="G32">
-        <v>155.1074</v>
+        <v>155.10740000000001</v>
       </c>
       <c r="H32">
         <v>110.8</v>
       </c>
       <c r="I32">
-        <v>356.776</v>
+        <v>356.77600000000001</v>
       </c>
       <c r="J32">
-        <v>69.84999999999999</v>
+        <v>69.849999999999994</v>
       </c>
       <c r="K32">
         <v>224.917</v>
@@ -2665,7 +3186,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>44</v>
       </c>
@@ -2679,7 +3200,7 @@
         <v>448.68</v>
       </c>
       <c r="E33">
-        <v>2.32</v>
+        <v>2.3199999999999998</v>
       </c>
       <c r="F33">
         <v>48.17</v>
@@ -2691,13 +3212,13 @@
         <v>110.8</v>
       </c>
       <c r="I33">
-        <v>257.056</v>
+        <v>257.05599999999998</v>
       </c>
       <c r="J33">
-        <v>69.84999999999999</v>
+        <v>69.849999999999994</v>
       </c>
       <c r="K33">
-        <v>162.052</v>
+        <v>162.05199999999999</v>
       </c>
       <c r="L33">
         <v>3.2</v>
@@ -2706,7 +3227,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>45</v>
       </c>
@@ -2726,7 +3247,7 @@
         <v>53.04</v>
       </c>
       <c r="G34">
-        <v>145.86</v>
+        <v>145.86000000000001</v>
       </c>
       <c r="H34">
         <v>122</v>
@@ -2747,7 +3268,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>46</v>
       </c>
@@ -2761,25 +3282,25 @@
         <v>0</v>
       </c>
       <c r="E35">
-        <v>0.58</v>
+        <v>0.57999999999999996</v>
       </c>
       <c r="F35">
         <v>48.17</v>
       </c>
       <c r="G35">
-        <v>27.9386</v>
+        <v>27.938600000000001</v>
       </c>
       <c r="H35">
         <v>110.8</v>
       </c>
       <c r="I35">
-        <v>64.264</v>
+        <v>64.263999999999996</v>
       </c>
       <c r="J35">
-        <v>69.84999999999999</v>
+        <v>69.849999999999994</v>
       </c>
       <c r="K35">
-        <v>40.513</v>
+        <v>40.512999999999998</v>
       </c>
       <c r="L35">
         <v>3.2</v>
@@ -2788,7 +3309,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>47</v>
       </c>
@@ -2808,7 +3329,7 @@
         <v>48.17</v>
       </c>
       <c r="G36">
-        <v>47.2066</v>
+        <v>47.206600000000002</v>
       </c>
       <c r="H36">
         <v>110.8</v>
@@ -2817,10 +3338,10 @@
         <v>108.584</v>
       </c>
       <c r="J36">
-        <v>69.84999999999999</v>
+        <v>69.849999999999994</v>
       </c>
       <c r="K36">
-        <v>68.453</v>
+        <v>68.453000000000003</v>
       </c>
       <c r="L36">
         <v>3.2</v>
@@ -2829,7 +3350,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>48</v>
       </c>
@@ -2849,16 +3370,16 @@
         <v>48.17</v>
       </c>
       <c r="G37">
-        <v>71.2916</v>
+        <v>71.291600000000003</v>
       </c>
       <c r="H37">
         <v>110.8</v>
       </c>
       <c r="I37">
-        <v>163.984</v>
+        <v>163.98400000000001</v>
       </c>
       <c r="J37">
-        <v>69.84999999999999</v>
+        <v>69.849999999999994</v>
       </c>
       <c r="K37">
         <v>103.378</v>
@@ -2870,7 +3391,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>49</v>
       </c>
@@ -2890,19 +3411,19 @@
         <v>48.17</v>
       </c>
       <c r="G38">
-        <v>184.9728</v>
+        <v>184.97280000000001</v>
       </c>
       <c r="H38">
         <v>110.8</v>
       </c>
       <c r="I38">
-        <v>425.472</v>
+        <v>425.47199999999998</v>
       </c>
       <c r="J38">
-        <v>69.84999999999999</v>
+        <v>69.849999999999994</v>
       </c>
       <c r="K38">
-        <v>268.224</v>
+        <v>268.22399999999999</v>
       </c>
       <c r="L38">
         <v>3.2</v>
@@ -2911,7 +3432,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>50</v>
       </c>
@@ -2931,19 +3452,19 @@
         <v>48.17</v>
       </c>
       <c r="G39">
-        <v>58.2857</v>
+        <v>58.285699999999999</v>
       </c>
       <c r="H39">
         <v>110.8</v>
       </c>
       <c r="I39">
-        <v>134.068</v>
+        <v>134.06800000000001</v>
       </c>
       <c r="J39">
-        <v>69.84999999999999</v>
+        <v>69.849999999999994</v>
       </c>
       <c r="K39">
-        <v>84.5185</v>
+        <v>84.518500000000003</v>
       </c>
       <c r="L39">
         <v>3.2</v>
@@ -2952,7 +3473,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -2981,10 +3502,10 @@
         <v>216.06</v>
       </c>
       <c r="J40">
-        <v>69.84999999999999</v>
+        <v>69.849999999999994</v>
       </c>
       <c r="K40">
-        <v>136.2075</v>
+        <v>136.20750000000001</v>
       </c>
       <c r="L40">
         <v>3.2</v>
@@ -2993,7 +3514,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>52</v>
       </c>
@@ -3013,19 +3534,19 @@
         <v>48.17</v>
       </c>
       <c r="G41">
-        <v>47.6883</v>
+        <v>47.688299999999998</v>
       </c>
       <c r="H41">
         <v>110.8</v>
       </c>
       <c r="I41">
-        <v>109.692</v>
+        <v>109.69199999999999</v>
       </c>
       <c r="J41">
-        <v>69.84999999999999</v>
+        <v>69.849999999999994</v>
       </c>
       <c r="K41">
-        <v>69.1515</v>
+        <v>69.151499999999999</v>
       </c>
       <c r="L41">
         <v>3.2</v>
@@ -3034,7 +3555,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>53</v>
       </c>
@@ -3060,10 +3581,10 @@
         <v>110.8</v>
       </c>
       <c r="I42">
-        <v>211.628</v>
+        <v>211.62799999999999</v>
       </c>
       <c r="J42">
-        <v>69.84999999999999</v>
+        <v>69.849999999999994</v>
       </c>
       <c r="K42">
         <v>133.4135</v>
@@ -3075,7 +3596,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>54</v>
       </c>
@@ -3095,19 +3616,19 @@
         <v>48.17</v>
       </c>
       <c r="G43">
-        <v>58.2857</v>
+        <v>58.285699999999999</v>
       </c>
       <c r="H43">
         <v>110.8</v>
       </c>
       <c r="I43">
-        <v>134.068</v>
+        <v>134.06800000000001</v>
       </c>
       <c r="J43">
-        <v>69.84999999999999</v>
+        <v>69.849999999999994</v>
       </c>
       <c r="K43">
-        <v>84.5185</v>
+        <v>84.518500000000003</v>
       </c>
       <c r="L43">
         <v>3.2</v>
@@ -3116,7 +3637,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -3136,19 +3657,19 @@
         <v>52.96</v>
       </c>
       <c r="G44">
-        <v>64.08159999999999</v>
+        <v>64.081599999999995</v>
       </c>
       <c r="H44">
         <v>121.81</v>
       </c>
       <c r="I44">
-        <v>147.3901</v>
+        <v>147.39009999999999</v>
       </c>
       <c r="J44">
-        <v>76.79000000000001</v>
+        <v>76.790000000000006</v>
       </c>
       <c r="K44">
-        <v>92.91589999999999</v>
+        <v>92.915899999999993</v>
       </c>
       <c r="L44">
         <v>3.2</v>
@@ -3157,7 +3678,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>56</v>
       </c>
@@ -3177,7 +3698,7 @@
         <v>53.04</v>
       </c>
       <c r="G45">
-        <v>63.1176</v>
+        <v>63.117600000000003</v>
       </c>
       <c r="H45">
         <v>122</v>
@@ -3189,7 +3710,7 @@
         <v>76.91</v>
       </c>
       <c r="K45">
-        <v>91.52290000000001</v>
+        <v>91.522900000000007</v>
       </c>
       <c r="L45">
         <v>3.2</v>
@@ -3198,7 +3719,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>57</v>
       </c>
@@ -3230,7 +3751,7 @@
         <v>75.37</v>
       </c>
       <c r="K46">
-        <v>113.055</v>
+        <v>113.05500000000001</v>
       </c>
       <c r="L46">
         <v>3.2</v>
@@ -3239,7 +3760,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>58</v>
       </c>
@@ -3253,25 +3774,25 @@
         <v>0</v>
       </c>
       <c r="E47">
-        <v>0.57</v>
+        <v>0.56999999999999995</v>
       </c>
       <c r="F47">
         <v>50.75</v>
       </c>
       <c r="G47">
-        <v>28.9275</v>
+        <v>28.927499999999998</v>
       </c>
       <c r="H47">
         <v>116.73</v>
       </c>
       <c r="I47">
-        <v>66.5361</v>
+        <v>66.536100000000005</v>
       </c>
       <c r="J47">
         <v>73.58</v>
       </c>
       <c r="K47">
-        <v>41.9406</v>
+        <v>41.940600000000003</v>
       </c>
       <c r="L47">
         <v>3.2</v>
@@ -3280,7 +3801,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>59</v>
       </c>
@@ -3300,7 +3821,7 @@
         <v>53.04</v>
       </c>
       <c r="G48">
-        <v>826.3632</v>
+        <v>826.36320000000001</v>
       </c>
       <c r="H48">
         <v>122</v>
@@ -3312,7 +3833,7 @@
         <v>76.91</v>
       </c>
       <c r="K48">
-        <v>1198.2578</v>
+        <v>1198.2578000000001</v>
       </c>
       <c r="L48">
         <v>3.2</v>
@@ -3321,7 +3842,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>60</v>
       </c>
@@ -3350,10 +3871,10 @@
         <v>221.6</v>
       </c>
       <c r="J49">
-        <v>69.84999999999999</v>
+        <v>69.849999999999994</v>
       </c>
       <c r="K49">
-        <v>139.7</v>
+        <v>139.69999999999999</v>
       </c>
       <c r="L49">
         <v>3.2</v>
@@ -3362,7 +3883,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>61</v>
       </c>
@@ -3391,10 +3912,10 @@
         <v>221.6</v>
       </c>
       <c r="J50">
-        <v>69.84999999999999</v>
+        <v>69.849999999999994</v>
       </c>
       <c r="K50">
-        <v>139.7</v>
+        <v>139.69999999999999</v>
       </c>
       <c r="L50">
         <v>3.2</v>
@@ -3403,7 +3924,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>62</v>
       </c>
@@ -3432,10 +3953,10 @@
         <v>221.6</v>
       </c>
       <c r="J51">
-        <v>69.84999999999999</v>
+        <v>69.849999999999994</v>
       </c>
       <c r="K51">
-        <v>139.7</v>
+        <v>139.69999999999999</v>
       </c>
       <c r="L51">
         <v>3.2</v>
@@ -3444,7 +3965,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>63</v>
       </c>
@@ -3473,10 +3994,10 @@
         <v>886.4</v>
       </c>
       <c r="J52">
-        <v>69.84999999999999</v>
+        <v>69.849999999999994</v>
       </c>
       <c r="K52">
-        <v>558.8</v>
+        <v>558.79999999999995</v>
       </c>
       <c r="L52">
         <v>3.2</v>
@@ -3485,7 +4006,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>64</v>
       </c>
@@ -3505,7 +4026,7 @@
         <v>48.17</v>
       </c>
       <c r="G53">
-        <v>72.255</v>
+        <v>72.254999999999995</v>
       </c>
       <c r="H53">
         <v>110.8</v>
@@ -3514,10 +4035,10 @@
         <v>166.2</v>
       </c>
       <c r="J53">
-        <v>69.84999999999999</v>
+        <v>69.849999999999994</v>
       </c>
       <c r="K53">
-        <v>104.775</v>
+        <v>104.77500000000001</v>
       </c>
       <c r="L53">
         <v>3.2</v>
@@ -3526,7 +4047,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>65</v>
       </c>
@@ -3555,10 +4076,10 @@
         <v>221.6</v>
       </c>
       <c r="J54">
-        <v>69.84999999999999</v>
+        <v>69.849999999999994</v>
       </c>
       <c r="K54">
-        <v>139.7</v>
+        <v>139.69999999999999</v>
       </c>
       <c r="L54">
         <v>3.2</v>
@@ -3567,7 +4088,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>66</v>
       </c>
@@ -3596,10 +4117,10 @@
         <v>221.6</v>
       </c>
       <c r="J55">
-        <v>69.84999999999999</v>
+        <v>69.849999999999994</v>
       </c>
       <c r="K55">
-        <v>139.7</v>
+        <v>139.69999999999999</v>
       </c>
       <c r="L55">
         <v>3.2</v>
@@ -3608,7 +4129,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>67</v>
       </c>
@@ -3637,10 +4158,10 @@
         <v>387.8</v>
       </c>
       <c r="J56">
-        <v>69.84999999999999</v>
+        <v>69.849999999999994</v>
       </c>
       <c r="K56">
-        <v>244.475</v>
+        <v>244.47499999999999</v>
       </c>
       <c r="L56">
         <v>3.2</v>
@@ -3649,7 +4170,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>68</v>
       </c>
@@ -3678,10 +4199,10 @@
         <v>221.6</v>
       </c>
       <c r="J57">
-        <v>69.84999999999999</v>
+        <v>69.849999999999994</v>
       </c>
       <c r="K57">
-        <v>139.7</v>
+        <v>139.69999999999999</v>
       </c>
       <c r="L57">
         <v>3.2</v>
@@ -3690,7 +4211,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>69</v>
       </c>
@@ -3719,10 +4240,10 @@
         <v>243.62</v>
       </c>
       <c r="J58">
-        <v>76.79000000000001</v>
+        <v>76.790000000000006</v>
       </c>
       <c r="K58">
-        <v>153.58</v>
+        <v>153.58000000000001</v>
       </c>
       <c r="L58">
         <v>3.2</v>
@@ -3731,7 +4252,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>70</v>
       </c>
@@ -3772,7 +4293,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>71</v>
       </c>
@@ -3813,7 +4334,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>72</v>
       </c>
@@ -3854,7 +4375,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>73</v>
       </c>
@@ -3895,7 +4416,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>74</v>
       </c>
@@ -3924,10 +4445,10 @@
         <v>221.6</v>
       </c>
       <c r="J63">
-        <v>69.84999999999999</v>
+        <v>69.849999999999994</v>
       </c>
       <c r="K63">
-        <v>139.7</v>
+        <v>139.69999999999999</v>
       </c>
       <c r="L63">
         <v>3.2</v>
@@ -3936,7 +4457,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>75</v>
       </c>
@@ -3965,10 +4486,10 @@
         <v>221.6</v>
       </c>
       <c r="J64">
-        <v>69.84999999999999</v>
+        <v>69.849999999999994</v>
       </c>
       <c r="K64">
-        <v>139.7</v>
+        <v>139.69999999999999</v>
       </c>
       <c r="L64">
         <v>3.2</v>
@@ -3977,7 +4498,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>76</v>
       </c>
@@ -4006,7 +4527,7 @@
         <v>332.4</v>
       </c>
       <c r="J65">
-        <v>69.84999999999999</v>
+        <v>69.849999999999994</v>
       </c>
       <c r="K65">
         <v>209.55</v>
@@ -4018,7 +4539,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>77</v>
       </c>
@@ -4047,10 +4568,10 @@
         <v>1772.8</v>
       </c>
       <c r="J66">
-        <v>69.84999999999999</v>
+        <v>69.849999999999994</v>
       </c>
       <c r="K66">
-        <v>1117.6</v>
+        <v>1117.5999999999999</v>
       </c>
       <c r="L66">
         <v>3.2</v>
@@ -4059,7 +4580,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>78</v>
       </c>
@@ -4088,10 +4609,10 @@
         <v>221.6</v>
       </c>
       <c r="J67">
-        <v>69.84999999999999</v>
+        <v>69.849999999999994</v>
       </c>
       <c r="K67">
-        <v>139.7</v>
+        <v>139.69999999999999</v>
       </c>
       <c r="L67">
         <v>3.2</v>
@@ -4100,7 +4621,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>79</v>
       </c>
@@ -4129,10 +4650,10 @@
         <v>221.6</v>
       </c>
       <c r="J68">
-        <v>69.84999999999999</v>
+        <v>69.849999999999994</v>
       </c>
       <c r="K68">
-        <v>139.7</v>
+        <v>139.69999999999999</v>
       </c>
       <c r="L68">
         <v>3.2</v>
@@ -4141,7 +4662,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>80</v>
       </c>
@@ -4170,10 +4691,10 @@
         <v>221.6</v>
       </c>
       <c r="J69">
-        <v>69.84999999999999</v>
+        <v>69.849999999999994</v>
       </c>
       <c r="K69">
-        <v>139.7</v>
+        <v>139.69999999999999</v>
       </c>
       <c r="L69">
         <v>3.2</v>
@@ -4182,7 +4703,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>81</v>
       </c>
@@ -4211,10 +4732,10 @@
         <v>221.6</v>
       </c>
       <c r="J70">
-        <v>69.84999999999999</v>
+        <v>69.849999999999994</v>
       </c>
       <c r="K70">
-        <v>139.7</v>
+        <v>139.69999999999999</v>
       </c>
       <c r="L70">
         <v>3.2</v>
@@ -4223,7 +4744,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>82</v>
       </c>
@@ -4252,10 +4773,10 @@
         <v>221.6</v>
       </c>
       <c r="J71">
-        <v>69.84999999999999</v>
+        <v>69.849999999999994</v>
       </c>
       <c r="K71">
-        <v>139.7</v>
+        <v>139.69999999999999</v>
       </c>
       <c r="L71">
         <v>3.2</v>
@@ -4264,7 +4785,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>83</v>
       </c>
@@ -4293,10 +4814,10 @@
         <v>243.62</v>
       </c>
       <c r="J72">
-        <v>76.79000000000001</v>
+        <v>76.790000000000006</v>
       </c>
       <c r="K72">
-        <v>153.58</v>
+        <v>153.58000000000001</v>
       </c>
       <c r="L72">
         <v>3.2</v>
@@ -4305,7 +4826,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>84</v>
       </c>
@@ -4316,7 +4837,7 @@
         <v>301</v>
       </c>
       <c r="D73">
-        <v>32.16</v>
+        <v>32.159999999999997</v>
       </c>
       <c r="E73">
         <v>2</v>
@@ -4346,7 +4867,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>85</v>
       </c>
@@ -4378,7 +4899,7 @@
         <v>75.37</v>
       </c>
       <c r="K74">
-        <v>263.795</v>
+        <v>263.79500000000002</v>
       </c>
       <c r="L74">
         <v>3.2</v>
@@ -4387,7 +4908,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>86</v>
       </c>
@@ -4407,13 +4928,13 @@
         <v>50.75</v>
       </c>
       <c r="G75">
-        <v>175.0875</v>
+        <v>175.08750000000001</v>
       </c>
       <c r="H75">
         <v>116.73</v>
       </c>
       <c r="I75">
-        <v>402.7185</v>
+        <v>402.71850000000001</v>
       </c>
       <c r="J75">
         <v>73.58</v>
@@ -4428,7 +4949,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>87</v>
       </c>
@@ -4457,7 +4978,7 @@
         <v>1265.04</v>
       </c>
       <c r="J76">
-        <v>66.45999999999999</v>
+        <v>66.459999999999994</v>
       </c>
       <c r="K76">
         <v>797.52</v>
@@ -4469,7 +4990,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>88</v>
       </c>
@@ -4510,7 +5031,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>89</v>
       </c>
@@ -4530,13 +5051,13 @@
         <v>44.93</v>
       </c>
       <c r="G78">
-        <v>292.045</v>
+        <v>292.04500000000002</v>
       </c>
       <c r="H78">
         <v>103.33</v>
       </c>
       <c r="I78">
-        <v>671.645</v>
+        <v>671.64499999999998</v>
       </c>
       <c r="J78">
         <v>65.14</v>
@@ -4551,7 +5072,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>90</v>
       </c>
@@ -4571,10 +5092,10 @@
         <v>64.19</v>
       </c>
       <c r="G79">
-        <v>96.285</v>
+        <v>96.284999999999997</v>
       </c>
       <c r="H79">
-        <v>147.64</v>
+        <v>147.63999999999999</v>
       </c>
       <c r="I79">
         <v>221.46</v>
@@ -4592,7 +5113,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>91</v>
       </c>
@@ -4618,10 +5139,10 @@
         <v>123.84</v>
       </c>
       <c r="I80">
-        <v>619.2</v>
+        <v>619.20000000000005</v>
       </c>
       <c r="J80">
-        <v>78.06999999999999</v>
+        <v>78.069999999999993</v>
       </c>
       <c r="K80">
         <v>390.35</v>
@@ -4633,7 +5154,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>92</v>
       </c>
@@ -4644,7 +5165,7 @@
         <v>301</v>
       </c>
       <c r="D81">
-        <v>68.43000000000001</v>
+        <v>68.430000000000007</v>
       </c>
       <c r="E81">
         <v>2</v>
@@ -4674,7 +5195,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>93</v>
       </c>
@@ -4715,7 +5236,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>94</v>
       </c>
@@ -4756,7 +5277,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>95</v>
       </c>
@@ -4797,7 +5318,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>96</v>
       </c>
@@ -4826,10 +5347,10 @@
         <v>110.8</v>
       </c>
       <c r="J85">
-        <v>69.84999999999999</v>
+        <v>69.849999999999994</v>
       </c>
       <c r="K85">
-        <v>69.84999999999999</v>
+        <v>69.849999999999994</v>
       </c>
       <c r="L85">
         <v>3.4</v>
@@ -4838,7 +5359,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>97</v>
       </c>
@@ -4867,7 +5388,7 @@
         <v>332.4</v>
       </c>
       <c r="J86">
-        <v>69.84999999999999</v>
+        <v>69.849999999999994</v>
       </c>
       <c r="K86">
         <v>209.55</v>
@@ -4879,7 +5400,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>98</v>
       </c>
@@ -4908,10 +5429,10 @@
         <v>110.8</v>
       </c>
       <c r="J87">
-        <v>69.84999999999999</v>
+        <v>69.849999999999994</v>
       </c>
       <c r="K87">
-        <v>69.84999999999999</v>
+        <v>69.849999999999994</v>
       </c>
       <c r="L87">
         <v>3.4</v>
@@ -4920,7 +5441,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>99</v>
       </c>
@@ -4961,7 +5482,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>100</v>
       </c>
@@ -5002,7 +5523,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>101</v>
       </c>
@@ -5022,16 +5543,16 @@
         <v>48.17</v>
       </c>
       <c r="G90">
-        <v>82.8524</v>
+        <v>82.852400000000003</v>
       </c>
       <c r="H90">
         <v>110.8</v>
       </c>
       <c r="I90">
-        <v>190.576</v>
+        <v>190.57599999999999</v>
       </c>
       <c r="J90">
-        <v>69.84999999999999</v>
+        <v>69.849999999999994</v>
       </c>
       <c r="K90">
         <v>120.142</v>
@@ -5043,7 +5564,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>102</v>
       </c>
@@ -5063,19 +5584,19 @@
         <v>48.17</v>
       </c>
       <c r="G91">
-        <v>381.9881</v>
+        <v>381.98809999999997</v>
       </c>
       <c r="H91">
         <v>110.8</v>
       </c>
       <c r="I91">
-        <v>878.644</v>
+        <v>878.64400000000001</v>
       </c>
       <c r="J91">
-        <v>69.84999999999999</v>
+        <v>69.849999999999994</v>
       </c>
       <c r="K91">
-        <v>553.9105</v>
+        <v>553.91049999999996</v>
       </c>
       <c r="L91">
         <v>3.4</v>
@@ -5084,7 +5605,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>103</v>
       </c>
@@ -5113,10 +5634,10 @@
         <v>221.6</v>
       </c>
       <c r="J92">
-        <v>69.84999999999999</v>
+        <v>69.849999999999994</v>
       </c>
       <c r="K92">
-        <v>139.7</v>
+        <v>139.69999999999999</v>
       </c>
       <c r="L92">
         <v>3.4</v>
@@ -5125,7 +5646,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>104</v>
       </c>
@@ -5166,7 +5687,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>105</v>
       </c>
@@ -5207,7 +5728,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>106</v>
       </c>
@@ -5227,7 +5748,7 @@
         <v>48.17</v>
       </c>
       <c r="G95">
-        <v>60.6942</v>
+        <v>60.694200000000002</v>
       </c>
       <c r="H95">
         <v>110.8</v>
@@ -5236,10 +5757,10 @@
         <v>139.608</v>
       </c>
       <c r="J95">
-        <v>69.84999999999999</v>
+        <v>69.849999999999994</v>
       </c>
       <c r="K95">
-        <v>88.011</v>
+        <v>88.010999999999996</v>
       </c>
       <c r="L95">
         <v>3.4</v>
@@ -5248,7 +5769,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>107</v>
       </c>
@@ -5268,7 +5789,7 @@
         <v>48.17</v>
       </c>
       <c r="G96">
-        <v>238.4415</v>
+        <v>238.44149999999999</v>
       </c>
       <c r="H96">
         <v>110.8</v>
@@ -5277,10 +5798,10 @@
         <v>548.46</v>
       </c>
       <c r="J96">
-        <v>69.84999999999999</v>
+        <v>69.849999999999994</v>
       </c>
       <c r="K96">
-        <v>345.7575</v>
+        <v>345.75749999999999</v>
       </c>
       <c r="L96">
         <v>3.4</v>
@@ -5289,7 +5810,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>108</v>
       </c>
@@ -5318,10 +5839,10 @@
         <v>221.6</v>
       </c>
       <c r="J97">
-        <v>69.84999999999999</v>
+        <v>69.849999999999994</v>
       </c>
       <c r="K97">
-        <v>139.7</v>
+        <v>139.69999999999999</v>
       </c>
       <c r="L97">
         <v>3.4</v>
@@ -5330,7 +5851,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>109</v>
       </c>
@@ -5344,25 +5865,25 @@
         <v>24.47</v>
       </c>
       <c r="E98">
-        <v>4.64</v>
+        <v>4.6399999999999997</v>
       </c>
       <c r="F98">
         <v>50.59</v>
       </c>
       <c r="G98">
-        <v>234.7376</v>
+        <v>234.73759999999999</v>
       </c>
       <c r="H98">
         <v>116.36</v>
       </c>
       <c r="I98">
-        <v>539.9104</v>
+        <v>539.91039999999998</v>
       </c>
       <c r="J98">
-        <v>73.34999999999999</v>
+        <v>73.349999999999994</v>
       </c>
       <c r="K98">
-        <v>340.344</v>
+        <v>340.34399999999999</v>
       </c>
       <c r="L98">
         <v>3.5</v>
@@ -5371,7 +5892,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>110</v>
       </c>
@@ -5382,7 +5903,7 @@
         <v>301</v>
       </c>
       <c r="D99">
-        <v>98.40000000000001</v>
+        <v>98.4</v>
       </c>
       <c r="E99">
         <v>2.15</v>
@@ -5400,7 +5921,7 @@
         <v>252.4315</v>
       </c>
       <c r="J99">
-        <v>74.01000000000001</v>
+        <v>74.010000000000005</v>
       </c>
       <c r="K99">
         <v>159.1215</v>
@@ -5412,7 +5933,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>111</v>
       </c>
@@ -5453,7 +5974,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>112</v>
       </c>
@@ -5485,7 +6006,7 @@
         <v>68.34</v>
       </c>
       <c r="K101">
-        <v>208.437</v>
+        <v>208.43700000000001</v>
       </c>
       <c r="L101">
         <v>3.5</v>
@@ -5494,7 +6015,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>113</v>
       </c>
@@ -5508,7 +6029,7 @@
         <v>0</v>
       </c>
       <c r="E102">
-        <v>2.3</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="F102">
         <v>47.13</v>
@@ -5526,7 +6047,7 @@
         <v>68.34</v>
       </c>
       <c r="K102">
-        <v>157.182</v>
+        <v>157.18199999999999</v>
       </c>
       <c r="L102">
         <v>3.5</v>
@@ -5535,7 +6056,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>114</v>
       </c>
@@ -5549,7 +6070,7 @@
         <v>0</v>
       </c>
       <c r="E103">
-        <v>4.1</v>
+        <v>4.0999999999999996</v>
       </c>
       <c r="F103">
         <v>47.6</v>
@@ -5561,13 +6082,13 @@
         <v>109.48</v>
       </c>
       <c r="I103">
-        <v>448.868</v>
+        <v>448.86799999999999</v>
       </c>
       <c r="J103">
         <v>69.02</v>
       </c>
       <c r="K103">
-        <v>282.982</v>
+        <v>282.98200000000003</v>
       </c>
       <c r="L103">
         <v>3.5</v>
@@ -5576,7 +6097,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>115</v>
       </c>
@@ -5596,13 +6117,13 @@
         <v>50.17</v>
       </c>
       <c r="G104">
-        <v>281.4537</v>
+        <v>281.45370000000003</v>
       </c>
       <c r="H104">
         <v>115.4</v>
       </c>
       <c r="I104">
-        <v>647.394</v>
+        <v>647.39400000000001</v>
       </c>
       <c r="J104">
         <v>72.75</v>
@@ -5617,7 +6138,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>116</v>
       </c>
@@ -5637,19 +6158,19 @@
         <v>49.55</v>
       </c>
       <c r="G105">
-        <v>204.146</v>
+        <v>204.14599999999999</v>
       </c>
       <c r="H105">
         <v>113.96</v>
       </c>
       <c r="I105">
-        <v>469.5152</v>
+        <v>469.51519999999999</v>
       </c>
       <c r="J105">
-        <v>71.84999999999999</v>
+        <v>71.849999999999994</v>
       </c>
       <c r="K105">
-        <v>296.022</v>
+        <v>296.02199999999999</v>
       </c>
       <c r="L105">
         <v>3.5</v>
@@ -5658,7 +6179,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>117</v>
       </c>
@@ -5672,25 +6193,25 @@
         <v>24.47</v>
       </c>
       <c r="E106">
-        <v>4.61</v>
+        <v>4.6100000000000003</v>
       </c>
       <c r="F106">
         <v>49.39</v>
       </c>
       <c r="G106">
-        <v>227.6879</v>
+        <v>227.68790000000001</v>
       </c>
       <c r="H106">
         <v>113.6</v>
       </c>
       <c r="I106">
-        <v>523.696</v>
+        <v>523.69600000000003</v>
       </c>
       <c r="J106">
         <v>71.62</v>
       </c>
       <c r="K106">
-        <v>330.1682</v>
+        <v>330.16820000000001</v>
       </c>
       <c r="L106">
         <v>3.5</v>
@@ -5699,7 +6220,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>118</v>
       </c>
@@ -5719,19 +6240,19 @@
         <v>48.96</v>
       </c>
       <c r="G107">
-        <v>177.2352</v>
+        <v>177.23519999999999</v>
       </c>
       <c r="H107">
         <v>112.6</v>
       </c>
       <c r="I107">
-        <v>407.612</v>
+        <v>407.61200000000002</v>
       </c>
       <c r="J107">
         <v>70.98</v>
       </c>
       <c r="K107">
-        <v>256.9476</v>
+        <v>256.94760000000002</v>
       </c>
       <c r="L107">
         <v>3.5</v>
@@ -5740,7 +6261,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>119</v>
       </c>
@@ -5766,13 +6287,13 @@
         <v>117.44</v>
       </c>
       <c r="I108">
-        <v>459.1904</v>
+        <v>459.19040000000001</v>
       </c>
       <c r="J108">
         <v>74.03</v>
       </c>
       <c r="K108">
-        <v>289.4573</v>
+        <v>289.45729999999998</v>
       </c>
       <c r="L108">
         <v>3.6</v>
@@ -5781,7 +6302,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>120</v>
       </c>
@@ -5807,13 +6328,13 @@
         <v>116.68</v>
       </c>
       <c r="I109">
-        <v>514.5588</v>
+        <v>514.55880000000002</v>
       </c>
       <c r="J109">
         <v>73.56</v>
       </c>
       <c r="K109">
-        <v>324.3996</v>
+        <v>324.39960000000002</v>
       </c>
       <c r="L109">
         <v>3.6</v>
@@ -5822,7 +6343,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>121</v>
       </c>
@@ -5842,16 +6363,16 @@
         <v>51.08</v>
       </c>
       <c r="G110">
-        <v>148.6428</v>
+        <v>148.64279999999999</v>
       </c>
       <c r="H110">
         <v>117.49</v>
       </c>
       <c r="I110">
-        <v>341.8959</v>
+        <v>341.89589999999998</v>
       </c>
       <c r="J110">
-        <v>74.06999999999999</v>
+        <v>74.069999999999993</v>
       </c>
       <c r="K110">
         <v>215.5437</v>
@@ -5863,7 +6384,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>122</v>
       </c>
@@ -5883,16 +6404,16 @@
         <v>50.59</v>
       </c>
       <c r="G111">
-        <v>159.8644</v>
+        <v>159.86439999999999</v>
       </c>
       <c r="H111">
         <v>116.36</v>
       </c>
       <c r="I111">
-        <v>367.6976</v>
+        <v>367.69760000000002</v>
       </c>
       <c r="J111">
-        <v>73.34999999999999</v>
+        <v>73.349999999999994</v>
       </c>
       <c r="K111">
         <v>231.786</v>
@@ -5904,7 +6425,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>123</v>
       </c>
@@ -5918,7 +6439,7 @@
         <v>44.87</v>
       </c>
       <c r="E112">
-        <v>2.24</v>
+        <v>2.2400000000000002</v>
       </c>
       <c r="F112">
         <v>50.94</v>
@@ -5936,7 +6457,7 @@
         <v>73.86</v>
       </c>
       <c r="K112">
-        <v>165.4464</v>
+        <v>165.44640000000001</v>
       </c>
       <c r="L112">
         <v>3.6</v>
@@ -5945,7 +6466,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>124</v>
       </c>
@@ -5971,13 +6492,13 @@
         <v>114.96</v>
       </c>
       <c r="I113">
-        <v>305.7936</v>
+        <v>305.79360000000003</v>
       </c>
       <c r="J113">
         <v>72.48</v>
       </c>
       <c r="K113">
-        <v>192.7968</v>
+        <v>192.79679999999999</v>
       </c>
       <c r="L113">
         <v>3.6</v>
@@ -5986,7 +6507,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="114" spans="1:13">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>125</v>
       </c>
@@ -6006,19 +6527,19 @@
         <v>46.89</v>
       </c>
       <c r="G114">
-        <v>86.7465</v>
+        <v>86.746499999999997</v>
       </c>
       <c r="H114">
         <v>107.84</v>
       </c>
       <c r="I114">
-        <v>199.504</v>
+        <v>199.50399999999999</v>
       </c>
       <c r="J114">
-        <v>67.98999999999999</v>
+        <v>67.989999999999995</v>
       </c>
       <c r="K114">
-        <v>125.7815</v>
+        <v>125.78149999999999</v>
       </c>
       <c r="L114">
         <v>3.6</v>
@@ -6027,7 +6548,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="115" spans="1:13">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>126</v>
       </c>
@@ -6053,13 +6574,13 @@
         <v>108.01</v>
       </c>
       <c r="I115">
-        <v>280.826</v>
+        <v>280.82600000000002</v>
       </c>
       <c r="J115">
         <v>68.09</v>
       </c>
       <c r="K115">
-        <v>177.034</v>
+        <v>177.03399999999999</v>
       </c>
       <c r="L115">
         <v>3.6</v>
@@ -6068,7 +6589,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="116" spans="1:13">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>127</v>
       </c>
@@ -6088,7 +6609,7 @@
         <v>47.25</v>
       </c>
       <c r="G116">
-        <v>80.325</v>
+        <v>80.325000000000003</v>
       </c>
       <c r="H116">
         <v>108.69</v>
@@ -6097,7 +6618,7 @@
         <v>184.773</v>
       </c>
       <c r="J116">
-        <v>68.51000000000001</v>
+        <v>68.510000000000005</v>
       </c>
       <c r="K116">
         <v>116.467</v>
@@ -6109,7 +6630,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="117" spans="1:13">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>128</v>
       </c>
@@ -6129,7 +6650,7 @@
         <v>47.25</v>
       </c>
       <c r="G117">
-        <v>80.325</v>
+        <v>80.325000000000003</v>
       </c>
       <c r="H117">
         <v>108.69</v>
@@ -6138,7 +6659,7 @@
         <v>184.773</v>
       </c>
       <c r="J117">
-        <v>68.51000000000001</v>
+        <v>68.510000000000005</v>
       </c>
       <c r="K117">
         <v>116.467</v>
@@ -6150,7 +6671,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="118" spans="1:13">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>129</v>
       </c>
@@ -6170,19 +6691,19 @@
         <v>46.89</v>
       </c>
       <c r="G118">
-        <v>86.7465</v>
+        <v>86.746499999999997</v>
       </c>
       <c r="H118">
         <v>107.84</v>
       </c>
       <c r="I118">
-        <v>199.504</v>
+        <v>199.50399999999999</v>
       </c>
       <c r="J118">
-        <v>67.98999999999999</v>
+        <v>67.989999999999995</v>
       </c>
       <c r="K118">
-        <v>125.7815</v>
+        <v>125.78149999999999</v>
       </c>
       <c r="L118">
         <v>3.6</v>
@@ -6191,7 +6712,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="119" spans="1:13">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>130</v>
       </c>
@@ -6223,7 +6744,7 @@
         <v>68.8</v>
       </c>
       <c r="K119">
-        <v>147.92</v>
+        <v>147.91999999999999</v>
       </c>
       <c r="L119">
         <v>3.6</v>
@@ -6232,7 +6753,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="120" spans="1:13">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>131</v>
       </c>
@@ -6252,13 +6773,13 @@
         <v>47.93</v>
       </c>
       <c r="G120">
-        <v>146.6658</v>
+        <v>146.66579999999999</v>
       </c>
       <c r="H120">
         <v>110.24</v>
       </c>
       <c r="I120">
-        <v>337.3344</v>
+        <v>337.33440000000002</v>
       </c>
       <c r="J120">
         <v>69.5</v>
@@ -6273,7 +6794,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="121" spans="1:13">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>132</v>
       </c>
@@ -6293,19 +6814,19 @@
         <v>47.81</v>
       </c>
       <c r="G121">
-        <v>138.1709</v>
+        <v>138.17089999999999</v>
       </c>
       <c r="H121">
         <v>109.96</v>
       </c>
       <c r="I121">
-        <v>317.7844</v>
+        <v>317.78440000000001</v>
       </c>
       <c r="J121">
         <v>69.33</v>
       </c>
       <c r="K121">
-        <v>200.3637</v>
+        <v>200.36369999999999</v>
       </c>
       <c r="L121">
         <v>3.6</v>
@@ -6314,7 +6835,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="122" spans="1:13">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>133</v>
       </c>
@@ -6334,19 +6855,19 @@
         <v>47.36</v>
       </c>
       <c r="G122">
-        <v>90.4576</v>
+        <v>90.457599999999999</v>
       </c>
       <c r="H122">
         <v>108.93</v>
       </c>
       <c r="I122">
-        <v>208.0563</v>
+        <v>208.05629999999999</v>
       </c>
       <c r="J122">
         <v>68.67</v>
       </c>
       <c r="K122">
-        <v>131.1597</v>
+        <v>131.15969999999999</v>
       </c>
       <c r="L122">
         <v>3.6</v>
@@ -6355,7 +6876,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="123" spans="1:13">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>134</v>
       </c>
@@ -6396,7 +6917,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="124" spans="1:13">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>135</v>
       </c>
@@ -6416,19 +6937,19 @@
         <v>47.32</v>
       </c>
       <c r="G124">
-        <v>130.6032</v>
+        <v>130.60319999999999</v>
       </c>
       <c r="H124">
         <v>108.85</v>
       </c>
       <c r="I124">
-        <v>300.426</v>
+        <v>300.42599999999999</v>
       </c>
       <c r="J124">
         <v>68.61</v>
       </c>
       <c r="K124">
-        <v>189.3636</v>
+        <v>189.36359999999999</v>
       </c>
       <c r="L124">
         <v>3.6</v>
@@ -6437,7 +6958,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="125" spans="1:13">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>136</v>
       </c>
@@ -6457,7 +6978,7 @@
         <v>47.67</v>
       </c>
       <c r="G125">
-        <v>145.8702</v>
+        <v>145.87020000000001</v>
       </c>
       <c r="H125">
         <v>109.64</v>
@@ -6469,7 +6990,7 @@
         <v>69.12</v>
       </c>
       <c r="K125">
-        <v>211.5072</v>
+        <v>211.50720000000001</v>
       </c>
       <c r="L125">
         <v>3.6</v>
@@ -6478,7 +6999,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="126" spans="1:13">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>137</v>
       </c>
@@ -6492,7 +7013,7 @@
         <v>29.56</v>
       </c>
       <c r="E126">
-        <v>9.970000000000001</v>
+        <v>9.9700000000000006</v>
       </c>
       <c r="F126">
         <v>49.31</v>
@@ -6507,10 +7028,10 @@
         <v>1130.598</v>
       </c>
       <c r="J126">
-        <v>71.48999999999999</v>
+        <v>71.489999999999995</v>
       </c>
       <c r="K126">
-        <v>712.7553</v>
+        <v>712.75530000000003</v>
       </c>
       <c r="L126">
         <v>3.7</v>
@@ -6519,7 +7040,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="127" spans="1:13">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>138</v>
       </c>
@@ -6545,13 +7066,13 @@
         <v>101.4</v>
       </c>
       <c r="I127">
-        <v>630.708</v>
+        <v>630.70799999999997</v>
       </c>
       <c r="J127">
         <v>63.92</v>
       </c>
       <c r="K127">
-        <v>397.5824</v>
+        <v>397.58240000000001</v>
       </c>
       <c r="L127">
         <v>3.7</v>
@@ -6560,7 +7081,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="128" spans="1:13">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>139</v>
       </c>
@@ -6589,10 +7110,10 @@
         <v>459.08</v>
       </c>
       <c r="J128">
-        <v>72.34999999999999</v>
+        <v>72.349999999999994</v>
       </c>
       <c r="K128">
-        <v>289.4</v>
+        <v>289.39999999999998</v>
       </c>
       <c r="L128">
         <v>3.7</v>
@@ -6601,7 +7122,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="129" spans="1:13">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>140</v>
       </c>
@@ -6621,19 +7142,19 @@
         <v>45.4</v>
       </c>
       <c r="G129">
-        <v>194.766</v>
+        <v>194.76599999999999</v>
       </c>
       <c r="H129">
         <v>104.43</v>
       </c>
       <c r="I129">
-        <v>448.0047</v>
+        <v>448.00470000000001</v>
       </c>
       <c r="J129">
         <v>65.84</v>
       </c>
       <c r="K129">
-        <v>282.4536</v>
+        <v>282.45359999999999</v>
       </c>
       <c r="L129">
         <v>3.7</v>
@@ -6642,7 +7163,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="130" spans="1:13">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>141</v>
       </c>
@@ -6662,19 +7183,19 @@
         <v>49.6</v>
       </c>
       <c r="G130">
-        <v>196.912</v>
+        <v>196.91200000000001</v>
       </c>
       <c r="H130">
         <v>114.09</v>
       </c>
       <c r="I130">
-        <v>452.9373</v>
+        <v>452.93729999999999</v>
       </c>
       <c r="J130">
-        <v>71.93000000000001</v>
+        <v>71.930000000000007</v>
       </c>
       <c r="K130">
-        <v>285.5621</v>
+        <v>285.56209999999999</v>
       </c>
       <c r="L130">
         <v>3.7</v>
@@ -6683,7 +7204,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="131" spans="1:13">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>142</v>
       </c>
@@ -6697,19 +7218,19 @@
         <v>0</v>
       </c>
       <c r="E131">
-        <v>2.55</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="F131">
         <v>50.38</v>
       </c>
       <c r="G131">
-        <v>128.469</v>
+        <v>128.46899999999999</v>
       </c>
       <c r="H131">
         <v>115.88</v>
       </c>
       <c r="I131">
-        <v>295.494</v>
+        <v>295.49400000000003</v>
       </c>
       <c r="J131">
         <v>73.06</v>
@@ -6724,7 +7245,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="132" spans="1:13">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>143</v>
       </c>
@@ -6765,7 +7286,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="133" spans="1:13">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>144</v>
       </c>
@@ -6794,10 +7315,10 @@
         <v>233.12</v>
       </c>
       <c r="J133">
-        <v>73.48999999999999</v>
+        <v>73.489999999999995</v>
       </c>
       <c r="K133">
-        <v>146.98</v>
+        <v>146.97999999999999</v>
       </c>
       <c r="L133">
         <v>3.7</v>
@@ -6806,7 +7327,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="134" spans="1:13">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>145</v>
       </c>
@@ -6826,7 +7347,7 @@
         <v>53.11</v>
       </c>
       <c r="G134">
-        <v>74.354</v>
+        <v>74.353999999999999</v>
       </c>
       <c r="H134">
         <v>122.16</v>
@@ -6847,7 +7368,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="135" spans="1:13">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>146</v>
       </c>
@@ -6867,13 +7388,13 @@
         <v>48.87</v>
       </c>
       <c r="G135">
-        <v>80.63549999999999</v>
+        <v>80.635499999999993</v>
       </c>
       <c r="H135">
         <v>112.41</v>
       </c>
       <c r="I135">
-        <v>185.4765</v>
+        <v>185.47649999999999</v>
       </c>
       <c r="J135">
         <v>70.86</v>
@@ -6888,7 +7409,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="136" spans="1:13">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>147</v>
       </c>
@@ -6908,7 +7429,7 @@
         <v>49.65</v>
       </c>
       <c r="G136">
-        <v>273.075</v>
+        <v>273.07499999999999</v>
       </c>
       <c r="H136">
         <v>114.2</v>
@@ -6917,10 +7438,10 @@
         <v>628.1</v>
       </c>
       <c r="J136">
-        <v>71.98999999999999</v>
+        <v>71.989999999999995</v>
       </c>
       <c r="K136">
-        <v>395.945</v>
+        <v>395.94499999999999</v>
       </c>
       <c r="L136">
         <v>3.7</v>
@@ -6929,7 +7450,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="137" spans="1:13">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>148</v>
       </c>
@@ -6949,13 +7470,13 @@
         <v>49.18</v>
       </c>
       <c r="G137">
-        <v>138.1958</v>
+        <v>138.19579999999999</v>
       </c>
       <c r="H137">
         <v>113.12</v>
       </c>
       <c r="I137">
-        <v>317.8672</v>
+        <v>317.86720000000003</v>
       </c>
       <c r="J137">
         <v>71.31</v>
@@ -6970,7 +7491,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="138" spans="1:13">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>149</v>
       </c>
@@ -6990,13 +7511,13 @@
         <v>49.18</v>
       </c>
       <c r="G138">
-        <v>138.1958</v>
+        <v>138.19579999999999</v>
       </c>
       <c r="H138">
         <v>113.12</v>
       </c>
       <c r="I138">
-        <v>317.8672</v>
+        <v>317.86720000000003</v>
       </c>
       <c r="J138">
         <v>71.31</v>
@@ -7011,7 +7532,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="139" spans="1:13">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>150</v>
       </c>
@@ -7031,7 +7552,7 @@
         <v>49.01</v>
       </c>
       <c r="G139">
-        <v>110.2725</v>
+        <v>110.27249999999999</v>
       </c>
       <c r="H139">
         <v>112.72</v>
@@ -7043,7 +7564,7 @@
         <v>71.06</v>
       </c>
       <c r="K139">
-        <v>159.885</v>
+        <v>159.88499999999999</v>
       </c>
       <c r="L139">
         <v>3.7</v>
@@ -7052,7 +7573,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="140" spans="1:13">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>151</v>
       </c>
@@ -7072,19 +7593,19 @@
         <v>48.56</v>
       </c>
       <c r="G140">
-        <v>141.7952</v>
+        <v>141.79519999999999</v>
       </c>
       <c r="H140">
         <v>111.68</v>
       </c>
       <c r="I140">
-        <v>326.1056</v>
+        <v>326.10559999999998</v>
       </c>
       <c r="J140">
         <v>70.41</v>
       </c>
       <c r="K140">
-        <v>205.5972</v>
+        <v>205.59719999999999</v>
       </c>
       <c r="L140">
         <v>3.7</v>
@@ -7093,7 +7614,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="141" spans="1:13">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>152</v>
       </c>
@@ -7122,10 +7643,10 @@
         <v>461.28</v>
       </c>
       <c r="J141">
-        <v>72.70999999999999</v>
+        <v>72.709999999999994</v>
       </c>
       <c r="K141">
-        <v>290.84</v>
+        <v>290.83999999999997</v>
       </c>
       <c r="L141">
         <v>3.7</v>
@@ -7134,7 +7655,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="142" spans="1:13">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>153</v>
       </c>
@@ -7163,10 +7684,10 @@
         <v>232.72</v>
       </c>
       <c r="J142">
-        <v>73.34999999999999</v>
+        <v>73.349999999999994</v>
       </c>
       <c r="K142">
-        <v>146.7</v>
+        <v>146.69999999999999</v>
       </c>
       <c r="L142">
         <v>3.7</v>
@@ -7175,7 +7696,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="143" spans="1:13">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>154</v>
       </c>
@@ -7204,10 +7725,10 @@
         <v>234.08</v>
       </c>
       <c r="J143">
-        <v>73.79000000000001</v>
+        <v>73.790000000000006</v>
       </c>
       <c r="K143">
-        <v>147.58</v>
+        <v>147.58000000000001</v>
       </c>
       <c r="L143">
         <v>3.7</v>
@@ -7216,7 +7737,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="144" spans="1:13">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>155</v>
       </c>
@@ -7257,7 +7778,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="145" spans="1:13">
+    <row r="145" spans="1:38" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>156</v>
       </c>
@@ -7277,7 +7798,7 @@
         <v>48.16</v>
       </c>
       <c r="G145">
-        <v>96.31999999999999</v>
+        <v>96.32</v>
       </c>
       <c r="H145">
         <v>110.76</v>
@@ -7296,6 +7817,1619 @@
       </c>
       <c r="M145" t="s">
         <v>324</v>
+      </c>
+    </row>
+    <row r="146" spans="1:38" s="9" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A146" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B146" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="C146" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="D146" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="E146" s="6">
+        <v>0.04</v>
+      </c>
+      <c r="F146" s="5">
+        <v>44.19</v>
+      </c>
+      <c r="G146" s="7">
+        <v>1.7675999999999998</v>
+      </c>
+      <c r="H146" s="5">
+        <v>101.64</v>
+      </c>
+      <c r="I146" s="8">
+        <v>4.0655999999999999</v>
+      </c>
+      <c r="J146" s="5">
+        <v>64.08</v>
+      </c>
+      <c r="K146" s="8">
+        <v>2.5632000000000001</v>
+      </c>
+      <c r="L146" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="M146" s="9" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="147" spans="1:38" s="9" customFormat="1" ht="409.5" x14ac:dyDescent="0.3">
+      <c r="A147" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B147" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="C147" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="D147" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="E147" s="6">
+        <v>0.04</v>
+      </c>
+      <c r="F147" s="5">
+        <v>44.19</v>
+      </c>
+      <c r="G147" s="7">
+        <v>1.7675999999999998</v>
+      </c>
+      <c r="H147" s="5">
+        <v>101.64</v>
+      </c>
+      <c r="I147" s="8">
+        <v>4.0655999999999999</v>
+      </c>
+      <c r="J147" s="5">
+        <v>64.08</v>
+      </c>
+      <c r="K147" s="8">
+        <v>2.5632000000000001</v>
+      </c>
+      <c r="L147" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="M147" s="9" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="148" spans="1:38" s="9" customFormat="1" ht="169" x14ac:dyDescent="0.3">
+      <c r="A148" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="B148" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="D148" s="5">
+        <v>0.03</v>
+      </c>
+      <c r="E148" s="6">
+        <v>0.06</v>
+      </c>
+      <c r="F148" s="5">
+        <v>44.29</v>
+      </c>
+      <c r="G148" s="7">
+        <v>2.6574</v>
+      </c>
+      <c r="H148" s="5">
+        <v>101.86</v>
+      </c>
+      <c r="I148" s="8">
+        <v>6.1116000000000001</v>
+      </c>
+      <c r="J148" s="5">
+        <v>64.22</v>
+      </c>
+      <c r="K148" s="8">
+        <v>3.8531999999999997</v>
+      </c>
+      <c r="L148" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="M148" s="9" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="149" spans="1:38" s="9" customFormat="1" ht="139.5" x14ac:dyDescent="0.3">
+      <c r="A149" s="2"/>
+      <c r="B149" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="C149" s="4"/>
+      <c r="D149" s="5">
+        <v>0</v>
+      </c>
+      <c r="E149" s="6">
+        <v>0</v>
+      </c>
+      <c r="F149" s="5">
+        <v>0</v>
+      </c>
+      <c r="G149" s="7"/>
+      <c r="H149" s="5">
+        <v>0</v>
+      </c>
+      <c r="I149" s="8"/>
+      <c r="J149" s="5">
+        <v>0</v>
+      </c>
+      <c r="K149" s="8"/>
+      <c r="L149" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="M149" s="9" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="150" spans="1:38" s="9" customFormat="1" ht="156" x14ac:dyDescent="0.3">
+      <c r="A150" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="C150" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="D150" s="5">
+        <v>1.31</v>
+      </c>
+      <c r="E150" s="6">
+        <v>0.06</v>
+      </c>
+      <c r="F150" s="5">
+        <v>46.17</v>
+      </c>
+      <c r="G150" s="7">
+        <v>2.7702</v>
+      </c>
+      <c r="H150" s="5">
+        <v>106.2</v>
+      </c>
+      <c r="I150" s="8">
+        <v>6.3719999999999999</v>
+      </c>
+      <c r="J150" s="5">
+        <v>66.959999999999994</v>
+      </c>
+      <c r="K150" s="8">
+        <v>4.0175999999999998</v>
+      </c>
+      <c r="L150" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="M150" s="9" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="151" spans="1:38" s="9" customFormat="1" ht="155.5" x14ac:dyDescent="0.3">
+      <c r="A151" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="C151" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="D151" s="5">
+        <v>1.94</v>
+      </c>
+      <c r="E151" s="6">
+        <v>0.09</v>
+      </c>
+      <c r="F151" s="5">
+        <v>43.7</v>
+      </c>
+      <c r="G151" s="7">
+        <v>3.9330000000000003</v>
+      </c>
+      <c r="H151" s="5">
+        <v>100.51</v>
+      </c>
+      <c r="I151" s="8">
+        <v>9.0458999999999996</v>
+      </c>
+      <c r="J151" s="5">
+        <v>63.37</v>
+      </c>
+      <c r="K151" s="8">
+        <v>5.7032999999999996</v>
+      </c>
+      <c r="L151" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="M151" s="9" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="152" spans="1:38" s="11" customFormat="1" ht="156" x14ac:dyDescent="0.3">
+      <c r="A152" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B152" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="D152" s="5">
+        <v>2.12</v>
+      </c>
+      <c r="E152" s="6">
+        <v>0.09</v>
+      </c>
+      <c r="F152" s="5">
+        <v>48.61</v>
+      </c>
+      <c r="G152" s="7">
+        <v>4.3748999999999993</v>
+      </c>
+      <c r="H152" s="5">
+        <v>111.81</v>
+      </c>
+      <c r="I152" s="8">
+        <v>10.062899999999999</v>
+      </c>
+      <c r="J152" s="5">
+        <v>70.489999999999995</v>
+      </c>
+      <c r="K152" s="8">
+        <v>6.3440999999999992</v>
+      </c>
+      <c r="L152" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="M152" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="N152" s="9"/>
+      <c r="O152" s="9"/>
+      <c r="P152" s="9"/>
+      <c r="Q152" s="9"/>
+      <c r="R152" s="9"/>
+      <c r="S152" s="9"/>
+      <c r="T152" s="9"/>
+      <c r="U152" s="9"/>
+      <c r="V152" s="9"/>
+      <c r="W152" s="9"/>
+      <c r="X152" s="9"/>
+      <c r="Y152" s="9"/>
+      <c r="Z152" s="9"/>
+      <c r="AA152" s="9"/>
+      <c r="AB152" s="9"/>
+      <c r="AC152" s="9"/>
+      <c r="AD152" s="9"/>
+      <c r="AE152" s="9"/>
+      <c r="AF152" s="9"/>
+      <c r="AG152" s="9"/>
+      <c r="AH152" s="9"/>
+      <c r="AI152" s="9"/>
+      <c r="AJ152" s="9"/>
+      <c r="AK152" s="9"/>
+      <c r="AL152" s="9"/>
+    </row>
+    <row r="153" spans="1:38" s="11" customFormat="1" ht="156" x14ac:dyDescent="0.3">
+      <c r="A153" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D153" s="5">
+        <v>6.08</v>
+      </c>
+      <c r="E153" s="6">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="F153" s="5">
+        <v>44.16</v>
+      </c>
+      <c r="G153" s="7">
+        <v>25.171199999999995</v>
+      </c>
+      <c r="H153" s="5">
+        <v>101.57</v>
+      </c>
+      <c r="I153" s="8">
+        <v>57.894899999999993</v>
+      </c>
+      <c r="J153" s="5">
+        <v>64.040000000000006</v>
+      </c>
+      <c r="K153" s="8">
+        <v>36.502800000000001</v>
+      </c>
+      <c r="L153" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="M153" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="N153" s="9"/>
+      <c r="O153" s="9"/>
+      <c r="P153" s="9"/>
+      <c r="Q153" s="9"/>
+      <c r="R153" s="9"/>
+      <c r="S153" s="9"/>
+      <c r="T153" s="9"/>
+      <c r="U153" s="9"/>
+      <c r="V153" s="9"/>
+      <c r="W153" s="9"/>
+      <c r="X153" s="9"/>
+      <c r="Y153" s="9"/>
+      <c r="Z153" s="9"/>
+      <c r="AA153" s="9"/>
+      <c r="AB153" s="9"/>
+      <c r="AC153" s="9"/>
+      <c r="AD153" s="9"/>
+      <c r="AE153" s="9"/>
+      <c r="AF153" s="9"/>
+      <c r="AG153" s="9"/>
+      <c r="AH153" s="9"/>
+      <c r="AI153" s="9"/>
+      <c r="AJ153" s="9"/>
+      <c r="AK153" s="9"/>
+      <c r="AL153" s="9"/>
+    </row>
+    <row r="154" spans="1:38" s="9" customFormat="1" ht="38.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B154" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D154" s="5">
+        <v>8.94</v>
+      </c>
+      <c r="E154" s="6">
+        <v>1.05</v>
+      </c>
+      <c r="F154" s="5">
+        <v>48.93</v>
+      </c>
+      <c r="G154" s="7">
+        <v>51.3765</v>
+      </c>
+      <c r="H154" s="5">
+        <v>112.53</v>
+      </c>
+      <c r="I154" s="8">
+        <v>118.15650000000001</v>
+      </c>
+      <c r="J154" s="5">
+        <v>70.94</v>
+      </c>
+      <c r="K154" s="8">
+        <v>74.486999999999995</v>
+      </c>
+      <c r="L154" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="M154" s="9" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="155" spans="1:38" s="9" customFormat="1" ht="23.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D155" s="5">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="E155" s="6">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="F155" s="5">
+        <v>44.19</v>
+      </c>
+      <c r="G155" s="7">
+        <v>49.934699999999992</v>
+      </c>
+      <c r="H155" s="5">
+        <v>101.64</v>
+      </c>
+      <c r="I155" s="8">
+        <v>114.85319999999999</v>
+      </c>
+      <c r="J155" s="5">
+        <v>64.08</v>
+      </c>
+      <c r="K155" s="8">
+        <v>72.410399999999996</v>
+      </c>
+      <c r="L155" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="M155" s="9" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="156" spans="1:38" s="9" customFormat="1" ht="58" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D156" s="5">
+        <v>6.62</v>
+      </c>
+      <c r="E156" s="6">
+        <v>0.16</v>
+      </c>
+      <c r="F156" s="5">
+        <v>49</v>
+      </c>
+      <c r="G156" s="7">
+        <v>7.84</v>
+      </c>
+      <c r="H156" s="5">
+        <v>112.69</v>
+      </c>
+      <c r="I156" s="8">
+        <v>18.0304</v>
+      </c>
+      <c r="J156" s="5">
+        <v>71.040000000000006</v>
+      </c>
+      <c r="K156" s="8">
+        <v>11.366400000000001</v>
+      </c>
+      <c r="L156" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="M156" s="9" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="157" spans="1:38" s="9" customFormat="1" ht="30.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D157" s="5">
+        <v>4.08</v>
+      </c>
+      <c r="E157" s="6">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="F157" s="5">
+        <v>48.16</v>
+      </c>
+      <c r="G157" s="7">
+        <v>13.966399999999998</v>
+      </c>
+      <c r="H157" s="5">
+        <v>110.76</v>
+      </c>
+      <c r="I157" s="8">
+        <v>32.120399999999997</v>
+      </c>
+      <c r="J157" s="5">
+        <v>69.83</v>
+      </c>
+      <c r="K157" s="8">
+        <v>20.250699999999998</v>
+      </c>
+      <c r="L157" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="M157" s="9" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="158" spans="1:38" s="9" customFormat="1" ht="26" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B158" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D158" s="5">
+        <v>5.7</v>
+      </c>
+      <c r="E158" s="6">
+        <v>1.1299999999999999</v>
+      </c>
+      <c r="F158" s="5">
+        <v>44.19</v>
+      </c>
+      <c r="G158" s="7">
+        <v>49.934699999999992</v>
+      </c>
+      <c r="H158" s="5">
+        <v>101.64</v>
+      </c>
+      <c r="I158" s="8">
+        <v>114.85319999999999</v>
+      </c>
+      <c r="J158" s="5">
+        <v>64.08</v>
+      </c>
+      <c r="K158" s="8">
+        <v>72.410399999999996</v>
+      </c>
+      <c r="L158" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="M158" s="9" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="159" spans="1:38" s="9" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D159" s="5">
+        <v>3.07</v>
+      </c>
+      <c r="E159" s="6">
+        <v>1.05</v>
+      </c>
+      <c r="F159" s="5">
+        <v>48.17</v>
+      </c>
+      <c r="G159" s="7">
+        <v>50.578500000000005</v>
+      </c>
+      <c r="H159" s="5">
+        <v>110.8</v>
+      </c>
+      <c r="I159" s="8">
+        <v>116.34</v>
+      </c>
+      <c r="J159" s="5">
+        <v>69.849999999999994</v>
+      </c>
+      <c r="K159" s="8">
+        <v>73.342500000000001</v>
+      </c>
+      <c r="L159" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="M159" s="9" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="160" spans="1:38" s="9" customFormat="1" ht="169" x14ac:dyDescent="0.3">
+      <c r="A160" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="C160" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D160" s="5">
+        <v>2.13</v>
+      </c>
+      <c r="E160" s="6">
+        <v>0.25</v>
+      </c>
+      <c r="F160" s="5">
+        <v>44.18</v>
+      </c>
+      <c r="G160" s="7">
+        <v>11.045</v>
+      </c>
+      <c r="H160" s="5">
+        <v>101.6</v>
+      </c>
+      <c r="I160" s="8">
+        <v>25.4</v>
+      </c>
+      <c r="J160" s="5">
+        <v>64.06</v>
+      </c>
+      <c r="K160" s="8">
+        <v>16.015000000000001</v>
+      </c>
+      <c r="L160" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="M160" s="9" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="161" spans="1:38" s="9" customFormat="1" ht="29" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D161" s="5">
+        <v>3.48</v>
+      </c>
+      <c r="E161" s="6">
+        <v>0.65</v>
+      </c>
+      <c r="F161" s="5">
+        <v>48.91</v>
+      </c>
+      <c r="G161" s="7">
+        <v>31.791499999999999</v>
+      </c>
+      <c r="H161" s="5">
+        <v>112.49</v>
+      </c>
+      <c r="I161" s="8">
+        <v>73.118499999999997</v>
+      </c>
+      <c r="J161" s="5">
+        <v>70.92</v>
+      </c>
+      <c r="K161" s="8">
+        <v>46.098000000000006</v>
+      </c>
+      <c r="L161" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="M161" s="9" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="162" spans="1:38" s="9" customFormat="1" ht="37" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="C162" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D162" s="5">
+        <v>3.19</v>
+      </c>
+      <c r="E162" s="6">
+        <v>0.49</v>
+      </c>
+      <c r="F162" s="5">
+        <v>44.14</v>
+      </c>
+      <c r="G162" s="7">
+        <v>21.628599999999999</v>
+      </c>
+      <c r="H162" s="5">
+        <v>101.53</v>
+      </c>
+      <c r="I162" s="8">
+        <v>49.749699999999997</v>
+      </c>
+      <c r="J162" s="5">
+        <v>64</v>
+      </c>
+      <c r="K162" s="8">
+        <v>31.36</v>
+      </c>
+      <c r="L162" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="M162" s="9" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="163" spans="1:38" s="9" customFormat="1" ht="39.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B163" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D163" s="5">
+        <v>2.3199999999999998</v>
+      </c>
+      <c r="E163" s="6">
+        <v>0.5</v>
+      </c>
+      <c r="F163" s="5">
+        <v>48.94</v>
+      </c>
+      <c r="G163" s="7">
+        <v>24.47</v>
+      </c>
+      <c r="H163" s="5">
+        <v>112.57</v>
+      </c>
+      <c r="I163" s="8">
+        <v>56.284999999999997</v>
+      </c>
+      <c r="J163" s="5">
+        <v>70.959999999999994</v>
+      </c>
+      <c r="K163" s="8">
+        <v>35.479999999999997</v>
+      </c>
+      <c r="L163" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="M163" s="9" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="164" spans="1:38" s="9" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D164" s="5">
+        <v>1.52</v>
+      </c>
+      <c r="E164" s="6">
+        <v>0.8</v>
+      </c>
+      <c r="F164" s="5">
+        <v>44.21</v>
+      </c>
+      <c r="G164" s="7">
+        <v>35.368000000000002</v>
+      </c>
+      <c r="H164" s="5">
+        <v>101.68</v>
+      </c>
+      <c r="I164" s="8">
+        <v>81.344000000000008</v>
+      </c>
+      <c r="J164" s="5">
+        <v>64.099999999999994</v>
+      </c>
+      <c r="K164" s="8">
+        <v>51.28</v>
+      </c>
+      <c r="L164" s="9" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="165" spans="1:38" s="9" customFormat="1" ht="34.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="C165" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D165" s="5">
+        <v>3.97</v>
+      </c>
+      <c r="E165" s="6">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="F165" s="5">
+        <v>48.93</v>
+      </c>
+      <c r="G165" s="7">
+        <v>56.269499999999994</v>
+      </c>
+      <c r="H165" s="5">
+        <v>112.53</v>
+      </c>
+      <c r="I165" s="8">
+        <v>129.40949999999998</v>
+      </c>
+      <c r="J165" s="5">
+        <v>70.94</v>
+      </c>
+      <c r="K165" s="8">
+        <v>81.580999999999989</v>
+      </c>
+      <c r="L165" s="9" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="166" spans="1:38" s="9" customFormat="1" ht="65" x14ac:dyDescent="0.3">
+      <c r="A166" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="C166" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D166" s="5">
+        <v>142.34</v>
+      </c>
+      <c r="E166" s="6">
+        <v>1</v>
+      </c>
+      <c r="F166" s="5">
+        <v>48.17</v>
+      </c>
+      <c r="G166" s="7">
+        <v>48.17</v>
+      </c>
+      <c r="H166" s="5">
+        <v>110.8</v>
+      </c>
+      <c r="I166" s="8">
+        <v>110.8</v>
+      </c>
+      <c r="J166" s="5">
+        <v>69.849999999999994</v>
+      </c>
+      <c r="K166" s="8">
+        <v>69.849999999999994</v>
+      </c>
+      <c r="L166" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="M166" s="9" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="167" spans="1:38" s="9" customFormat="1" ht="65" x14ac:dyDescent="0.3">
+      <c r="A167" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D167" s="5">
+        <v>210.47</v>
+      </c>
+      <c r="E167" s="6">
+        <v>1</v>
+      </c>
+      <c r="F167" s="5">
+        <v>48.17</v>
+      </c>
+      <c r="G167" s="7">
+        <v>48.17</v>
+      </c>
+      <c r="H167" s="5">
+        <v>110.8</v>
+      </c>
+      <c r="I167" s="8">
+        <v>110.8</v>
+      </c>
+      <c r="J167" s="5">
+        <v>69.849999999999994</v>
+      </c>
+      <c r="K167" s="8">
+        <v>69.849999999999994</v>
+      </c>
+      <c r="L167" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="M167" s="9" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="168" spans="1:38" s="9" customFormat="1" ht="117" x14ac:dyDescent="0.3">
+      <c r="A168" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="C168" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D168" s="5">
+        <v>407.89</v>
+      </c>
+      <c r="E168" s="6">
+        <v>1.3</v>
+      </c>
+      <c r="F168" s="5">
+        <v>48.17</v>
+      </c>
+      <c r="G168" s="7">
+        <v>62.621000000000002</v>
+      </c>
+      <c r="H168" s="5">
+        <v>110.8</v>
+      </c>
+      <c r="I168" s="8">
+        <v>144.04</v>
+      </c>
+      <c r="J168" s="5">
+        <v>69.849999999999994</v>
+      </c>
+      <c r="K168" s="8">
+        <v>90.804999999999993</v>
+      </c>
+      <c r="L168" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="M168" s="9" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="169" spans="1:38" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A169" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="C169" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D169" s="5">
+        <v>50.99</v>
+      </c>
+      <c r="E169" s="6">
+        <v>3.56</v>
+      </c>
+      <c r="F169" s="5">
+        <v>56.94</v>
+      </c>
+      <c r="G169" s="7">
+        <v>202.7064</v>
+      </c>
+      <c r="H169" s="5">
+        <v>130.96</v>
+      </c>
+      <c r="I169" s="8">
+        <v>466.21760000000006</v>
+      </c>
+      <c r="J169" s="5">
+        <v>82.56</v>
+      </c>
+      <c r="K169" s="8">
+        <v>293.91360000000003</v>
+      </c>
+      <c r="L169" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="M169" s="9" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="170" spans="1:38" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D170" s="5">
+        <v>81.58</v>
+      </c>
+      <c r="E170" s="6">
+        <v>6.32</v>
+      </c>
+      <c r="F170" s="5">
+        <v>58.04</v>
+      </c>
+      <c r="G170" s="7">
+        <v>366.81280000000004</v>
+      </c>
+      <c r="H170" s="5">
+        <v>133.49</v>
+      </c>
+      <c r="I170" s="8">
+        <v>843.65680000000009</v>
+      </c>
+      <c r="J170" s="5">
+        <v>84.15</v>
+      </c>
+      <c r="K170" s="8">
+        <v>531.82800000000009</v>
+      </c>
+      <c r="L170" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="M170" s="9" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="171" spans="1:38" s="9" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A171" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D171" s="5">
+        <v>91.78</v>
+      </c>
+      <c r="E171" s="6">
+        <v>11.24</v>
+      </c>
+      <c r="F171" s="5">
+        <v>59.27</v>
+      </c>
+      <c r="G171" s="7">
+        <v>666.1948000000001</v>
+      </c>
+      <c r="H171" s="5">
+        <v>136.32</v>
+      </c>
+      <c r="I171" s="8">
+        <v>1532.2367999999999</v>
+      </c>
+      <c r="J171" s="5">
+        <v>85.94</v>
+      </c>
+      <c r="K171" s="8">
+        <v>965.96559999999999</v>
+      </c>
+      <c r="L171" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="M171" s="9" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="172" spans="1:38" s="11" customFormat="1" ht="104" x14ac:dyDescent="0.3">
+      <c r="A172" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B172" s="3" t="s">
+        <v>378</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D172" s="5">
+        <v>2.41</v>
+      </c>
+      <c r="E172" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="F172" s="5">
+        <v>42.49</v>
+      </c>
+      <c r="G172" s="7">
+        <v>8.4980000000000011</v>
+      </c>
+      <c r="H172" s="5">
+        <v>97.73</v>
+      </c>
+      <c r="I172" s="8">
+        <v>19.546000000000003</v>
+      </c>
+      <c r="J172" s="5">
+        <v>61.61</v>
+      </c>
+      <c r="K172" s="8">
+        <v>12.322000000000001</v>
+      </c>
+      <c r="L172" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="M172" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="N172" s="9"/>
+      <c r="O172" s="9"/>
+      <c r="P172" s="9"/>
+      <c r="Q172" s="9"/>
+      <c r="R172" s="9"/>
+      <c r="S172" s="9"/>
+      <c r="T172" s="9"/>
+      <c r="U172" s="9"/>
+      <c r="V172" s="9"/>
+      <c r="W172" s="9"/>
+      <c r="X172" s="9"/>
+      <c r="Y172" s="9"/>
+      <c r="Z172" s="9"/>
+      <c r="AA172" s="9"/>
+      <c r="AB172" s="9"/>
+      <c r="AC172" s="9"/>
+      <c r="AD172" s="9"/>
+      <c r="AE172" s="9"/>
+      <c r="AF172" s="9"/>
+      <c r="AG172" s="9"/>
+      <c r="AH172" s="9"/>
+      <c r="AI172" s="9"/>
+      <c r="AJ172" s="9"/>
+      <c r="AK172" s="9"/>
+      <c r="AL172" s="9"/>
+    </row>
+    <row r="173" spans="1:38" s="11" customFormat="1" ht="78" x14ac:dyDescent="0.3">
+      <c r="A173" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B173" s="3" t="s">
+        <v>380</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D173" s="5">
+        <v>0.38</v>
+      </c>
+      <c r="E173" s="6">
+        <v>0.19</v>
+      </c>
+      <c r="F173" s="5">
+        <v>58.85</v>
+      </c>
+      <c r="G173" s="7">
+        <v>11.1815</v>
+      </c>
+      <c r="H173" s="5">
+        <v>135.36000000000001</v>
+      </c>
+      <c r="I173" s="8">
+        <v>25.718400000000003</v>
+      </c>
+      <c r="J173" s="5">
+        <v>85.34</v>
+      </c>
+      <c r="K173" s="8">
+        <v>16.214600000000001</v>
+      </c>
+      <c r="L173" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="M173" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="N173" s="9"/>
+      <c r="O173" s="9"/>
+      <c r="P173" s="9"/>
+      <c r="Q173" s="9"/>
+      <c r="R173" s="9"/>
+      <c r="S173" s="9"/>
+      <c r="T173" s="9"/>
+      <c r="U173" s="9"/>
+      <c r="V173" s="9"/>
+      <c r="W173" s="9"/>
+      <c r="X173" s="9"/>
+      <c r="Y173" s="9"/>
+      <c r="Z173" s="9"/>
+      <c r="AA173" s="9"/>
+      <c r="AB173" s="9"/>
+      <c r="AC173" s="9"/>
+      <c r="AD173" s="9"/>
+      <c r="AE173" s="9"/>
+      <c r="AF173" s="9"/>
+      <c r="AG173" s="9"/>
+      <c r="AH173" s="9"/>
+      <c r="AI173" s="9"/>
+      <c r="AJ173" s="9"/>
+      <c r="AK173" s="9"/>
+      <c r="AL173" s="9"/>
+    </row>
+    <row r="174" spans="1:38" s="9" customFormat="1" ht="91" x14ac:dyDescent="0.3">
+      <c r="A174" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B174" s="3" t="s">
+        <v>382</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="D174" s="5">
+        <v>0</v>
+      </c>
+      <c r="E174" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="F174" s="5">
+        <v>48.87</v>
+      </c>
+      <c r="G174" s="7">
+        <v>4.8870000000000005</v>
+      </c>
+      <c r="H174" s="5">
+        <v>112.41</v>
+      </c>
+      <c r="I174" s="8">
+        <v>11.241</v>
+      </c>
+      <c r="J174" s="5">
+        <v>70.86</v>
+      </c>
+      <c r="K174" s="8">
+        <v>7.0860000000000003</v>
+      </c>
+      <c r="L174" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="M174" s="9" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="175" spans="1:38" s="9" customFormat="1" ht="182" x14ac:dyDescent="0.3">
+      <c r="A175" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B175" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="C175" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="D175" s="5">
+        <v>0</v>
+      </c>
+      <c r="E175" s="6">
+        <v>0.06</v>
+      </c>
+      <c r="F175" s="5">
+        <v>44.61</v>
+      </c>
+      <c r="G175" s="7">
+        <v>2.6765999999999996</v>
+      </c>
+      <c r="H175" s="5">
+        <v>102.59</v>
+      </c>
+      <c r="I175" s="8">
+        <v>6.1554000000000002</v>
+      </c>
+      <c r="J175" s="5">
+        <v>64.680000000000007</v>
+      </c>
+      <c r="K175" s="8">
+        <v>3.8808000000000002</v>
+      </c>
+      <c r="L175" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="M175" s="9" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="176" spans="1:38" s="9" customFormat="1" ht="130" x14ac:dyDescent="0.3">
+      <c r="A176" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="B176" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="C176" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="D176" s="5">
+        <v>0</v>
+      </c>
+      <c r="E176" s="6">
+        <v>0.03</v>
+      </c>
+      <c r="F176" s="5">
+        <v>49.6</v>
+      </c>
+      <c r="G176" s="7">
+        <v>1.488</v>
+      </c>
+      <c r="H176" s="5">
+        <v>114.07</v>
+      </c>
+      <c r="I176" s="8">
+        <v>3.4220999999999995</v>
+      </c>
+      <c r="J176" s="5">
+        <v>71.91</v>
+      </c>
+      <c r="K176" s="8">
+        <v>2.1572999999999998</v>
+      </c>
+      <c r="L176" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="M176" s="9" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="177" spans="1:38" s="11" customFormat="1" ht="130" x14ac:dyDescent="0.3">
+      <c r="A177" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="B177" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="C177" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="D177" s="5">
+        <v>0</v>
+      </c>
+      <c r="E177" s="6">
+        <v>0.04</v>
+      </c>
+      <c r="F177" s="5">
+        <v>48.8</v>
+      </c>
+      <c r="G177" s="7">
+        <v>1.952</v>
+      </c>
+      <c r="H177" s="5">
+        <v>112.25</v>
+      </c>
+      <c r="I177" s="8">
+        <v>4.49</v>
+      </c>
+      <c r="J177" s="5">
+        <v>70.760000000000005</v>
+      </c>
+      <c r="K177" s="8">
+        <v>2.8304000000000005</v>
+      </c>
+      <c r="L177" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="M177" s="9" t="s">
+        <v>399</v>
+      </c>
+      <c r="N177" s="9"/>
+      <c r="O177" s="9"/>
+      <c r="P177" s="9"/>
+      <c r="Q177" s="9"/>
+      <c r="R177" s="9"/>
+      <c r="S177" s="9"/>
+      <c r="T177" s="9"/>
+      <c r="U177" s="9"/>
+      <c r="V177" s="9"/>
+      <c r="W177" s="9"/>
+      <c r="X177" s="9"/>
+      <c r="Y177" s="9"/>
+      <c r="Z177" s="9"/>
+      <c r="AA177" s="9"/>
+      <c r="AB177" s="9"/>
+      <c r="AC177" s="9"/>
+      <c r="AD177" s="9"/>
+      <c r="AE177" s="9"/>
+      <c r="AF177" s="9"/>
+      <c r="AG177" s="9"/>
+      <c r="AH177" s="9"/>
+      <c r="AI177" s="9"/>
+      <c r="AJ177" s="9"/>
+      <c r="AK177" s="9"/>
+      <c r="AL177" s="9"/>
+    </row>
+    <row r="178" spans="1:38" s="11" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A178" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="B178" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="C178" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D178" s="5">
+        <v>0</v>
+      </c>
+      <c r="E178" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="F178" s="5">
+        <v>49.26</v>
+      </c>
+      <c r="G178" s="7">
+        <v>7.3889999999999993</v>
+      </c>
+      <c r="H178" s="5">
+        <v>113.3</v>
+      </c>
+      <c r="I178" s="8">
+        <v>16.994999999999997</v>
+      </c>
+      <c r="J178" s="5">
+        <v>71.430000000000007</v>
+      </c>
+      <c r="K178" s="8">
+        <v>10.714500000000001</v>
+      </c>
+      <c r="L178" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="M178" s="9" t="s">
+        <v>398</v>
+      </c>
+      <c r="N178" s="9"/>
+      <c r="O178" s="9"/>
+      <c r="P178" s="9"/>
+      <c r="Q178" s="9"/>
+      <c r="R178" s="9"/>
+      <c r="S178" s="9"/>
+      <c r="T178" s="9"/>
+      <c r="U178" s="9"/>
+      <c r="V178" s="9"/>
+      <c r="W178" s="9"/>
+      <c r="X178" s="9"/>
+      <c r="Y178" s="9"/>
+      <c r="Z178" s="9"/>
+      <c r="AA178" s="9"/>
+      <c r="AB178" s="9"/>
+      <c r="AC178" s="9"/>
+      <c r="AD178" s="9"/>
+      <c r="AE178" s="9"/>
+      <c r="AF178" s="9"/>
+      <c r="AG178" s="9"/>
+      <c r="AH178" s="9"/>
+      <c r="AI178" s="9"/>
+      <c r="AJ178" s="9"/>
+      <c r="AK178" s="9"/>
+      <c r="AL178" s="9"/>
+    </row>
+    <row r="179" spans="1:38" s="9" customFormat="1" ht="104" x14ac:dyDescent="0.3">
+      <c r="A179" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="B179" s="3" t="s">
+        <v>392</v>
+      </c>
+      <c r="C179" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D179" s="5">
+        <v>0</v>
+      </c>
+      <c r="E179" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="F179" s="5">
+        <v>49.01</v>
+      </c>
+      <c r="G179" s="7">
+        <v>9.8019999999999996</v>
+      </c>
+      <c r="H179" s="5">
+        <v>112.74</v>
+      </c>
+      <c r="I179" s="8">
+        <v>22.548000000000002</v>
+      </c>
+      <c r="J179" s="5">
+        <v>71.08</v>
+      </c>
+      <c r="K179" s="8">
+        <v>14.216000000000001</v>
+      </c>
+      <c r="L179" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="M179" s="9" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="180" spans="1:38" s="9" customFormat="1" ht="104" x14ac:dyDescent="0.3">
+      <c r="A180" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="B180" s="3" t="s">
+        <v>394</v>
+      </c>
+      <c r="C180" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D180" s="5">
+        <v>0</v>
+      </c>
+      <c r="E180" s="6">
+        <v>0.15</v>
+      </c>
+      <c r="F180" s="5">
+        <v>48.23</v>
+      </c>
+      <c r="G180" s="7">
+        <v>7.2344999999999988</v>
+      </c>
+      <c r="H180" s="5">
+        <v>110.92</v>
+      </c>
+      <c r="I180" s="8">
+        <v>16.637999999999998</v>
+      </c>
+      <c r="J180" s="5">
+        <v>69.930000000000007</v>
+      </c>
+      <c r="K180" s="8">
+        <v>10.489500000000001</v>
+      </c>
+      <c r="L180" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="M180" s="9" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="181" spans="1:38" s="9" customFormat="1" ht="13" x14ac:dyDescent="0.3">
+      <c r="A181" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="B181" s="3" t="s">
+        <v>409</v>
+      </c>
+      <c r="C181" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="D181" s="5">
+        <v>0.91</v>
+      </c>
+      <c r="E181" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="F181" s="5">
+        <v>44.19</v>
+      </c>
+      <c r="G181" s="7">
+        <f t="shared" ref="G181" si="0">E181*F181</f>
+        <v>8.8379999999999992</v>
+      </c>
+      <c r="H181" s="5">
+        <v>101.64</v>
+      </c>
+      <c r="I181" s="8">
+        <f t="shared" ref="I181" si="1">H181*E181</f>
+        <v>20.328000000000003</v>
+      </c>
+      <c r="J181" s="5">
+        <v>64.08</v>
+      </c>
+      <c r="K181" s="8">
+        <f t="shared" ref="K181" si="2">E181*J181</f>
+        <v>12.816000000000001</v>
+      </c>
+      <c r="L181" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="M181" s="9" t="s">
+        <v>407</v>
       </c>
     </row>
   </sheetData>
